--- a/output/single_track_results/1C-24H_container_throughput_40_batch_size_20.xlsx
+++ b/output/single_track_results/1C-24H_container_throughput_40_batch_size_20.xlsx
@@ -858,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>4.014522010149443</v>
+        <v>1.051492054370788</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.233041207783031</v>
+        <v>1.1705698887395</v>
       </c>
       <c r="M2">
-        <v>4.902092938909827</v>
+        <v>2.190202989621396</v>
       </c>
       <c r="N2">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O2">
         <v>24</v>
@@ -882,10 +882,10 @@
         <v>138</v>
       </c>
       <c r="Q2">
-        <v>1.473201424264894</v>
+        <v>1.791246998738752</v>
       </c>
       <c r="R2">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -893,34 +893,34 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C3">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D3">
-        <v>3.803557172014398</v>
+        <v>0.953557172014398</v>
       </c>
       <c r="E3">
-        <v>4.014522010149443</v>
+        <v>1.185284734638833</v>
       </c>
       <c r="F3">
-        <v>3.948897194949238</v>
+        <v>1.093613228305576</v>
       </c>
       <c r="G3">
-        <v>3.948897194949238</v>
+        <v>1.093613228305576</v>
       </c>
       <c r="H3">
-        <v>4.233041207783031</v>
+        <v>1.445248746106032</v>
       </c>
       <c r="I3">
-        <v>4.026418916958666</v>
+        <v>1.170198664582343</v>
       </c>
       <c r="P3" t="s">
         <v>139</v>
       </c>
       <c r="Q3">
-        <v>0.2564189169586659</v>
+        <v>0.2501986645823434</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>4.008437209955846</v>
+        <v>1.185284734638833</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>4.229617706004369</v>
+        <v>1.445248746106032</v>
       </c>
       <c r="M4">
-        <v>4.868696010636546</v>
+        <v>2.35761853337257</v>
       </c>
       <c r="N4">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O4">
         <v>24</v>
@@ -952,10 +952,10 @@
         <v>138</v>
       </c>
       <c r="Q4">
-        <v>1.47928622445849</v>
+        <v>1.657454318470706</v>
       </c>
       <c r="R4">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -963,34 +963,34 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C5">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D5">
-        <v>3.83708443295745</v>
+        <v>0.9870844329574503</v>
       </c>
       <c r="E5">
-        <v>4.08452266587833</v>
+        <v>1.051492054370788</v>
       </c>
       <c r="F5">
-        <v>3.997188670185657</v>
+        <v>1.021384958799162</v>
       </c>
       <c r="G5">
-        <v>3.997188670185657</v>
+        <v>1.021384958799162</v>
       </c>
       <c r="H5">
-        <v>4.106732314089758</v>
+        <v>1.1705698887395</v>
       </c>
       <c r="I5">
-        <v>4.0483614634512</v>
+        <v>1.089153140068414</v>
       </c>
       <c r="P5" t="s">
         <v>139</v>
       </c>
       <c r="Q5">
-        <v>0.2783614634511999</v>
+        <v>0.1691531400684142</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -998,7 +998,7 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>4.08452266587833</v>
+        <v>1.142626172845992</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>4.106732314089758</v>
+        <v>1.370771074188631</v>
       </c>
       <c r="M6">
-        <v>4.835187370926193</v>
+        <v>2.257108557605029</v>
       </c>
       <c r="N6">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O6">
         <v>24</v>
@@ -1022,10 +1022,10 @@
         <v>138</v>
       </c>
       <c r="Q6">
-        <v>1.403200768536006</v>
+        <v>1.700112880263548</v>
       </c>
       <c r="R6">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1033,34 +1033,34 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C7">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D7">
-        <v>3.870460955040731</v>
+        <v>1.020460955040731</v>
       </c>
       <c r="E7">
-        <v>4.15538129494557</v>
+        <v>1.142626172845992</v>
       </c>
       <c r="F7">
-        <v>4.101451768091938</v>
+        <v>1.105292690570489</v>
       </c>
       <c r="G7">
-        <v>4.101451768091938</v>
+        <v>1.105292690570489</v>
       </c>
       <c r="H7">
-        <v>4.373040533198539</v>
+        <v>1.370771074188631</v>
       </c>
       <c r="I7">
-        <v>4.153576624850807</v>
+        <v>1.168808703791202</v>
       </c>
       <c r="P7" t="s">
         <v>139</v>
       </c>
       <c r="Q7">
-        <v>0.3835766248508068</v>
+        <v>0.2488087037912016</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1068,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="F8">
-        <v>4.15538129494557</v>
+        <v>1.196688283914305</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.373040533198539</v>
+        <v>1.361244499974795</v>
       </c>
       <c r="M8">
-        <v>5.002602914677368</v>
+        <v>2.223711629331749</v>
       </c>
       <c r="N8">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O8">
         <v>24</v>
@@ -1092,10 +1092,10 @@
         <v>138</v>
       </c>
       <c r="Q8">
-        <v>1.332342139468767</v>
+        <v>1.646050769195235</v>
       </c>
       <c r="R8">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1103,34 +1103,34 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C9">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D9">
-        <v>3.903887786858818</v>
+        <v>1.053887786858818</v>
       </c>
       <c r="E9">
-        <v>4.194648691802255</v>
+        <v>1.286447814818566</v>
       </c>
       <c r="F9">
-        <v>4.157049940171064</v>
+        <v>1.240852336962172</v>
       </c>
       <c r="G9">
-        <v>4.157049940171064</v>
+        <v>1.240852336962172</v>
       </c>
       <c r="H9">
-        <v>4.440427679359117</v>
+        <v>1.435926815144343</v>
       </c>
       <c r="I9">
-        <v>4.217057579148323</v>
+        <v>1.303520414898661</v>
       </c>
       <c r="P9" t="s">
         <v>139</v>
       </c>
       <c r="Q9">
-        <v>0.4470575791483227</v>
+        <v>0.383520414898661</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1138,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="F10">
-        <v>4.16665900971824</v>
+        <v>1.278383838754683</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.335879665402199</v>
+        <v>1.372304539892774</v>
       </c>
       <c r="M10">
-        <v>4.935677777802328</v>
+        <v>2.290693396497531</v>
       </c>
       <c r="N10">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O10">
         <v>24</v>
@@ -1162,10 +1162,10 @@
         <v>138</v>
       </c>
       <c r="Q10">
-        <v>1.321064424696097</v>
+        <v>1.564355214354856</v>
       </c>
       <c r="R10">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1173,34 +1173,34 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C11">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D11">
-        <v>3.937247985852383</v>
+        <v>1.087423823466233</v>
       </c>
       <c r="E11">
-        <v>4.008437209955846</v>
+        <v>1.196688283914305</v>
       </c>
       <c r="F11">
-        <v>3.968466597010886</v>
+        <v>1.14223666667356</v>
       </c>
       <c r="G11">
-        <v>3.968466597010886</v>
+        <v>1.14223666667356</v>
       </c>
       <c r="H11">
-        <v>4.229617706004369</v>
+        <v>1.361244499974795</v>
       </c>
       <c r="I11">
-        <v>4.044756742469527</v>
+        <v>1.190834848843453</v>
       </c>
       <c r="P11" t="s">
         <v>139</v>
       </c>
       <c r="Q11">
-        <v>0.2747567424695272</v>
+        <v>0.2708348488434525</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1208,34 +1208,34 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C12">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D12">
-        <v>3.970749020861096</v>
+        <v>1.121027466734005</v>
       </c>
       <c r="E12">
-        <v>4.16665900971824</v>
+        <v>1.278383838754683</v>
       </c>
       <c r="F12">
-        <v>4.139178744899648</v>
+        <v>1.199839423763896</v>
       </c>
       <c r="G12">
-        <v>4.139178744899648</v>
+        <v>1.199839423763896</v>
       </c>
       <c r="H12">
-        <v>4.335879665402199</v>
+        <v>1.372304539892774</v>
       </c>
       <c r="I12">
-        <v>4.20081468376035</v>
+        <v>1.243640158738117</v>
       </c>
       <c r="P12" t="s">
         <v>139</v>
       </c>
       <c r="Q12">
-        <v>0.4308146837603499</v>
+        <v>0.3236401587381171</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1243,7 +1243,7 @@
         <v>29</v>
       </c>
       <c r="F13">
-        <v>4.194648691802255</v>
+        <v>1.286447814818566</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.440427679359117</v>
+        <v>1.435926815144343</v>
       </c>
       <c r="M13">
-        <v>5.069521520903108</v>
+        <v>2.324265517442046</v>
       </c>
       <c r="N13">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O13">
         <v>24</v>
@@ -1267,10 +1267,10 @@
         <v>138</v>
       </c>
       <c r="Q13">
-        <v>1.293074742612082</v>
+        <v>1.556291238290974</v>
       </c>
       <c r="R13">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1278,34 +1278,34 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C14">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D14">
-        <v>4.004235698814227</v>
+        <v>1.154373529062798</v>
       </c>
       <c r="E14">
-        <v>4.25578819411836</v>
+        <v>1.46864437927165</v>
       </c>
       <c r="F14">
-        <v>4.185102796980075</v>
+        <v>1.409056753225864</v>
       </c>
       <c r="G14">
-        <v>4.185102796980075</v>
+        <v>1.409056753225864</v>
       </c>
       <c r="H14">
-        <v>4.519339107766348</v>
+        <v>1.71622164541076</v>
       </c>
       <c r="I14">
-        <v>4.258364612855137</v>
+        <v>1.45586502791921</v>
       </c>
       <c r="P14" t="s">
         <v>139</v>
       </c>
       <c r="Q14">
-        <v>0.4883646128551367</v>
+        <v>0.5358650279192104</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1313,7 +1313,7 @@
         <v>31</v>
       </c>
       <c r="F15">
-        <v>4.25578819411836</v>
+        <v>1.324211700081583</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1322,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.519339107766348</v>
+        <v>1.544700829531953</v>
       </c>
       <c r="M15">
-        <v>5.102914364460711</v>
+        <v>2.491300069780559</v>
       </c>
       <c r="N15">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O15">
         <v>24</v>
@@ -1337,10 +1337,10 @@
         <v>138</v>
       </c>
       <c r="Q15">
-        <v>1.231935240295977</v>
+        <v>1.518527353027956</v>
       </c>
       <c r="R15">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1348,34 +1348,34 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C16">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D16">
-        <v>4.037581761143021</v>
+        <v>1.187784077285885</v>
       </c>
       <c r="E16">
-        <v>4.374033391238505</v>
+        <v>1.324211700081583</v>
       </c>
       <c r="F16">
-        <v>4.307590580276008</v>
+        <v>1.267871590622962</v>
       </c>
       <c r="G16">
-        <v>4.307590580276008</v>
+        <v>1.267871590622962</v>
       </c>
       <c r="H16">
-        <v>4.426808697692611</v>
+        <v>1.544700829531953</v>
       </c>
       <c r="I16">
-        <v>4.371300594455826</v>
+        <v>1.316314734735322</v>
       </c>
       <c r="P16" t="s">
         <v>139</v>
       </c>
       <c r="Q16">
-        <v>0.6013005944558256</v>
+        <v>0.3963147347353223</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1383,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="F17">
-        <v>4.232565692207373</v>
+        <v>1.349155642293647</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.361656958827429</v>
+        <v>1.522962038856507</v>
       </c>
       <c r="M17">
-        <v>4.969249898746844</v>
+        <v>2.457929983155913</v>
       </c>
       <c r="N17">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O17">
         <v>24</v>
@@ -1407,10 +1407,10 @@
         <v>138</v>
       </c>
       <c r="Q17">
-        <v>1.255157742206963</v>
+        <v>1.493583410815892</v>
       </c>
       <c r="R17">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1418,34 +1418,34 @@
         <v>34</v>
       </c>
       <c r="B18">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C18">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D18">
-        <v>4.070943150428968</v>
+        <v>1.221175607016654</v>
       </c>
       <c r="E18">
-        <v>4.294152140083019</v>
+        <v>1.410004677643649</v>
       </c>
       <c r="F18">
-        <v>4.24691967096323</v>
+        <v>1.342366535956146</v>
       </c>
       <c r="G18">
-        <v>4.24691967096323</v>
+        <v>1.342366535956146</v>
       </c>
       <c r="H18">
-        <v>4.532100875960967</v>
+        <v>1.46367498418542</v>
       </c>
       <c r="I18">
-        <v>4.322608027223451</v>
+        <v>1.392837150277857</v>
       </c>
       <c r="P18" t="s">
         <v>139</v>
       </c>
       <c r="Q18">
-        <v>0.5526080272234508</v>
+        <v>0.4728371502778571</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1453,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <v>4.294152140083019</v>
+        <v>1.410004677643649</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.532100875960967</v>
+        <v>1.46367498418542</v>
       </c>
       <c r="M19">
-        <v>5.169877649485517</v>
+        <v>2.42453713959831</v>
       </c>
       <c r="N19">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O19">
         <v>24</v>
@@ -1477,10 +1477,10 @@
         <v>138</v>
       </c>
       <c r="Q19">
-        <v>1.193571294331317</v>
+        <v>1.43273437546589</v>
       </c>
       <c r="R19">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>4.325505510636721</v>
+        <v>1.426753641722617</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.524288090667341</v>
+        <v>1.451158482556676</v>
       </c>
       <c r="M20">
-        <v>5.136284451085356</v>
+        <v>2.391017979104339</v>
       </c>
       <c r="N20">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O20">
         <v>24</v>
@@ -1512,10 +1512,10 @@
         <v>138</v>
       </c>
       <c r="Q20">
-        <v>1.162217923777615</v>
+        <v>1.415985411386923</v>
       </c>
       <c r="R20">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1523,34 +1523,34 @@
         <v>37</v>
       </c>
       <c r="B21">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C21">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D21">
-        <v>4.104453062774597</v>
+        <v>1.254711475571641</v>
       </c>
       <c r="E21">
-        <v>4.378485048361112</v>
+        <v>1.349155642293647</v>
       </c>
       <c r="F21">
-        <v>4.293350939672068</v>
+        <v>1.277120719867168</v>
       </c>
       <c r="G21">
-        <v>4.293350939672068</v>
+        <v>1.277120719867168</v>
       </c>
       <c r="H21">
-        <v>4.585150888012564</v>
+        <v>1.522962038856507</v>
       </c>
       <c r="I21">
-        <v>4.349566725127859</v>
+        <v>1.351796705075299</v>
       </c>
       <c r="P21" t="s">
         <v>139</v>
       </c>
       <c r="Q21">
-        <v>0.5795667251278593</v>
+        <v>0.4317967050752994</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1558,34 +1558,34 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C22">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D22">
-        <v>4.137860556614054</v>
+        <v>1.288199517167134</v>
       </c>
       <c r="E22">
-        <v>4.380554233355882</v>
+        <v>1.610391453056143</v>
       </c>
       <c r="F22">
-        <v>4.309877700987579</v>
+        <v>1.530314326924523</v>
       </c>
       <c r="G22">
-        <v>4.309877700987579</v>
+        <v>1.530314326924523</v>
       </c>
       <c r="H22">
-        <v>4.58537527553877</v>
+        <v>1.851539888811725</v>
       </c>
       <c r="I22">
-        <v>4.376288560261147</v>
+        <v>1.579987621851456</v>
       </c>
       <c r="P22" t="s">
         <v>139</v>
       </c>
       <c r="Q22">
-        <v>0.6062885602611465</v>
+        <v>0.6599876218514563</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1593,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>4.378485048361112</v>
+        <v>1.46864437927165</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.585150888012564</v>
+        <v>1.71622164541076</v>
       </c>
       <c r="M23">
-        <v>5.270385519914386</v>
+        <v>2.591849855436175</v>
       </c>
       <c r="N23">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O23">
         <v>24</v>
@@ -1617,10 +1617,10 @@
         <v>138</v>
       </c>
       <c r="Q23">
-        <v>1.109238386053224</v>
+        <v>1.374094673837889</v>
       </c>
       <c r="R23">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>4.374033391238505</v>
+        <v>1.499254071149941</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.426808697692611</v>
+        <v>1.622957871435212</v>
       </c>
       <c r="M24">
-        <v>5.036002360409137</v>
+        <v>2.52489326818072</v>
       </c>
       <c r="N24">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O24">
         <v>24</v>
@@ -1652,10 +1652,10 @@
         <v>138</v>
       </c>
       <c r="Q24">
-        <v>1.113690043175832</v>
+        <v>1.343484981959598</v>
       </c>
       <c r="R24">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1663,34 +1663,34 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C25">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D25">
-        <v>4.17139642516904</v>
+        <v>1.321776285952265</v>
       </c>
       <c r="E25">
-        <v>4.232565692207373</v>
+        <v>1.426753641722617</v>
       </c>
       <c r="F25">
-        <v>4.194744463021511</v>
+        <v>1.349708178879641</v>
       </c>
       <c r="G25">
-        <v>4.194744463021511</v>
+        <v>1.349708178879641</v>
       </c>
       <c r="H25">
-        <v>4.361656958827429</v>
+        <v>1.451158482556676</v>
       </c>
       <c r="I25">
-        <v>4.249135656616359</v>
+        <v>1.401301055138783</v>
       </c>
       <c r="P25" t="s">
         <v>139</v>
       </c>
       <c r="Q25">
-        <v>0.4791356566163594</v>
+        <v>0.4813010551387825</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1698,34 +1698,34 @@
         <v>42</v>
       </c>
       <c r="B26">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C26">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D26">
-        <v>4.204793382966808</v>
+        <v>1.355291685581514</v>
       </c>
       <c r="E26">
-        <v>4.325505510636721</v>
+        <v>1.499254071149941</v>
       </c>
       <c r="F26">
-        <v>4.260874997901715</v>
+        <v>1.43352883153606</v>
       </c>
       <c r="G26">
-        <v>4.260874997901715</v>
+        <v>1.43352883153606</v>
       </c>
       <c r="H26">
-        <v>4.524288090667341</v>
+        <v>1.622957871435212</v>
       </c>
       <c r="I26">
-        <v>4.326806404345763</v>
+        <v>1.503696005115118</v>
       </c>
       <c r="P26" t="s">
         <v>139</v>
       </c>
       <c r="Q26">
-        <v>0.5568064043457626</v>
+        <v>0.5836960051151184</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1733,7 +1733,7 @@
         <v>43</v>
       </c>
       <c r="F27">
-        <v>4.380554233355882</v>
+        <v>1.570920229854969</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>4.58537527553877</v>
+        <v>1.663411919412503</v>
       </c>
       <c r="M27">
-        <v>5.303943157969321</v>
+        <v>2.558385224595533</v>
       </c>
       <c r="N27">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O27">
         <v>24</v>
@@ -1757,10 +1757,10 @@
         <v>138</v>
       </c>
       <c r="Q27">
-        <v>1.107169201058454</v>
+        <v>1.27181882325457</v>
       </c>
       <c r="R27">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1768,34 +1768,34 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C28">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D28">
-        <v>4.238380757297292</v>
+        <v>1.388787403912131</v>
       </c>
       <c r="E28">
-        <v>4.559029936643093</v>
+        <v>1.650255822289221</v>
       </c>
       <c r="F28">
-        <v>4.462078059711471</v>
+        <v>1.598914913332817</v>
       </c>
       <c r="G28">
-        <v>4.462078059711471</v>
+        <v>1.598914913332817</v>
       </c>
       <c r="H28">
-        <v>4.578575923992419</v>
+        <v>1.852594935395448</v>
       </c>
       <c r="I28">
-        <v>4.512321990018743</v>
+        <v>1.673652645307946</v>
       </c>
       <c r="P28" t="s">
         <v>139</v>
       </c>
       <c r="Q28">
-        <v>0.7423219900187426</v>
+        <v>0.7536526453079461</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1803,7 +1803,7 @@
         <v>45</v>
       </c>
       <c r="F29">
-        <v>4.493316060068786</v>
+        <v>1.610391453056143</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>4.537493850196833</v>
+        <v>1.851539888811725</v>
       </c>
       <c r="M29">
-        <v>5.20336960590033</v>
+        <v>2.725705260200244</v>
       </c>
       <c r="N29">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O29">
         <v>24</v>
@@ -1827,10 +1827,10 @@
         <v>138</v>
       </c>
       <c r="Q29">
-        <v>0.9944073743455499</v>
+        <v>1.232347600053396</v>
       </c>
       <c r="R29">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1838,7 +1838,7 @@
         <v>46</v>
       </c>
       <c r="F30">
-        <v>4.52630752032699</v>
+        <v>1.643091762410827</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>4.59520677569781</v>
+        <v>1.769088260593374</v>
       </c>
       <c r="M30">
-        <v>5.337329382945533</v>
+        <v>2.658958776664524</v>
       </c>
       <c r="N30">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O30">
         <v>24</v>
@@ -1862,10 +1862,10 @@
         <v>138</v>
       </c>
       <c r="Q30">
-        <v>0.9614159140873468</v>
+        <v>1.199647290698712</v>
       </c>
       <c r="R30">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1873,34 +1873,34 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C31">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D31">
-        <v>4.271787074410771</v>
+        <v>1.422133825127527</v>
       </c>
       <c r="E31">
-        <v>4.503300861237499</v>
+        <v>1.643091762410827</v>
       </c>
       <c r="F31">
-        <v>4.449936225000226</v>
+        <v>1.562386944431112</v>
       </c>
       <c r="G31">
-        <v>4.449936225000226</v>
+        <v>1.562386944431112</v>
       </c>
       <c r="H31">
-        <v>4.644947053132563</v>
+        <v>1.769088260593374</v>
       </c>
       <c r="I31">
-        <v>4.527170280372968</v>
+        <v>1.612280480205478</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
       </c>
       <c r="Q31">
-        <v>0.7571702803729683</v>
+        <v>0.6922804802054777</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -1908,34 +1908,34 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C32">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D32">
-        <v>4.305133495626166</v>
+        <v>1.455573163818223</v>
       </c>
       <c r="E32">
-        <v>4.493316060068786</v>
+        <v>1.686152226596946</v>
       </c>
       <c r="F32">
-        <v>4.429020215617191</v>
+        <v>1.610106561696569</v>
       </c>
       <c r="G32">
-        <v>4.429020215617191</v>
+        <v>1.610106561696569</v>
       </c>
       <c r="H32">
-        <v>4.537493850196833</v>
+        <v>1.721759035392921</v>
       </c>
       <c r="I32">
-        <v>4.497198437686457</v>
+        <v>1.652099735849079</v>
       </c>
       <c r="P32" t="s">
         <v>139</v>
       </c>
       <c r="Q32">
-        <v>0.7271984376864569</v>
+        <v>0.7320997358490789</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -1943,7 +1943,7 @@
         <v>49</v>
       </c>
       <c r="F33">
-        <v>4.503300861237499</v>
+        <v>1.650255822289221</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>4.644947053132563</v>
+        <v>1.852594935395448</v>
       </c>
       <c r="M33">
-        <v>5.370689641505042</v>
+        <v>2.759158329973135</v>
       </c>
       <c r="N33">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O33">
         <v>24</v>
@@ -1967,10 +1967,10 @@
         <v>138</v>
       </c>
       <c r="Q33">
-        <v>0.984422573176837</v>
+        <v>1.192483230820319</v>
       </c>
       <c r="R33">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -1978,34 +1978,34 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C34">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D34">
-        <v>4.3387435293429</v>
+        <v>1.488980615259877</v>
       </c>
       <c r="E34">
-        <v>4.581061068253465</v>
+        <v>1.570920229854969</v>
       </c>
       <c r="F34">
-        <v>4.559197728672877</v>
+        <v>1.510037137274446</v>
       </c>
       <c r="G34">
-        <v>4.559197728672877</v>
+        <v>1.510037137274446</v>
       </c>
       <c r="H34">
-        <v>4.798255548410975</v>
+        <v>1.663411919412503</v>
       </c>
       <c r="I34">
-        <v>4.609508069362578</v>
+        <v>1.553580709840354</v>
       </c>
       <c r="P34" t="s">
         <v>139</v>
       </c>
       <c r="Q34">
-        <v>0.8395080693625778</v>
+        <v>0.633580709840354</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2013,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="F35">
-        <v>4.559029936643093</v>
+        <v>1.686152226596946</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>4.578575923992419</v>
+        <v>1.721759035392921</v>
       </c>
       <c r="M35">
-        <v>5.236834236740973</v>
+        <v>2.625401138609589</v>
       </c>
       <c r="N35">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O35">
         <v>24</v>
@@ -2037,10 +2037,10 @@
         <v>138</v>
       </c>
       <c r="Q35">
-        <v>0.9286934977712438</v>
+        <v>1.156586826512594</v>
       </c>
       <c r="R35">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2048,34 +2048,34 @@
         <v>52</v>
       </c>
       <c r="B36">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C36">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D36">
-        <v>4.372107849391122</v>
+        <v>1.522439982956079</v>
       </c>
       <c r="E36">
-        <v>4.574309812052129</v>
+        <v>1.780236193562232</v>
       </c>
       <c r="F36">
-        <v>4.543739561929224</v>
+        <v>1.762445402140618</v>
       </c>
       <c r="G36">
-        <v>4.543739561929224</v>
+        <v>1.762445402140618</v>
       </c>
       <c r="H36">
-        <v>4.722785075814594</v>
+        <v>2.009621570911396</v>
       </c>
       <c r="I36">
-        <v>4.60312820601797</v>
+        <v>1.806652421082946</v>
       </c>
       <c r="P36" t="s">
         <v>139</v>
       </c>
       <c r="Q36">
-        <v>0.8331282060179697</v>
+        <v>0.886652421082946</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2083,7 +2083,7 @@
         <v>53</v>
       </c>
       <c r="F37">
-        <v>4.574309812052129</v>
+        <v>1.718236798086096</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>4.722785075814594</v>
+        <v>1.773394884005122</v>
       </c>
       <c r="M37">
-        <v>5.437593705339882</v>
+        <v>2.692345001640736</v>
       </c>
       <c r="N37">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O37">
         <v>24</v>
@@ -2107,10 +2107,10 @@
         <v>138</v>
       </c>
       <c r="Q37">
-        <v>0.9134136223622074</v>
+        <v>1.124502255023443</v>
       </c>
       <c r="R37">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2118,34 +2118,34 @@
         <v>54</v>
       </c>
       <c r="B38">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C38">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D38">
-        <v>4.40570613159321</v>
+        <v>1.556026824022564</v>
       </c>
       <c r="E38">
-        <v>4.52630752032699</v>
+        <v>1.718236798086096</v>
       </c>
       <c r="F38">
-        <v>4.440378044015911</v>
+        <v>1.662124756932319</v>
       </c>
       <c r="G38">
-        <v>4.440378044015911</v>
+        <v>1.662124756932319</v>
       </c>
       <c r="H38">
-        <v>4.59520677569781</v>
+        <v>1.773394884005122</v>
       </c>
       <c r="I38">
-        <v>4.488565738856708</v>
+        <v>1.717628766618772</v>
       </c>
       <c r="P38" t="s">
         <v>139</v>
       </c>
       <c r="Q38">
-        <v>0.7185657388567077</v>
+        <v>0.7976287666187721</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2153,7 +2153,7 @@
         <v>55</v>
       </c>
       <c r="F39">
-        <v>4.581061068253465</v>
+        <v>1.780236193562232</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>4.798255548410975</v>
+        <v>2.009621570911396</v>
       </c>
       <c r="M39">
-        <v>5.47105676774767</v>
+        <v>2.792609324035085</v>
       </c>
       <c r="N39">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O39">
         <v>24</v>
@@ -2177,10 +2177,10 @@
         <v>138</v>
       </c>
       <c r="Q39">
-        <v>0.9066623661608713</v>
+        <v>1.062502859547308</v>
       </c>
       <c r="R39">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2188,34 +2188,34 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="C40">
-        <v>3.77</v>
+        <v>0.92</v>
       </c>
       <c r="D40">
-        <v>4.439281275640387</v>
+        <v>1.589509984864264</v>
       </c>
       <c r="E40">
-        <v>4.615661216580746</v>
+        <v>1.938899046560676</v>
       </c>
       <c r="F40">
-        <v>4.579025205704384</v>
+        <v>1.858333313763589</v>
       </c>
       <c r="G40">
-        <v>4.579025205704384</v>
+        <v>1.858333313763589</v>
       </c>
       <c r="H40">
-        <v>4.684768557306409</v>
+        <v>2.10325774111004</v>
       </c>
       <c r="I40">
-        <v>4.63599634976311</v>
+        <v>1.906565154631065</v>
       </c>
       <c r="P40" t="s">
         <v>139</v>
       </c>
       <c r="Q40">
-        <v>0.8659963497631105</v>
+        <v>0.9865651546310646</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2223,7 +2223,7 @@
         <v>57</v>
       </c>
       <c r="F41">
-        <v>4.615661216580746</v>
+        <v>1.938899046560676</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>4.684768557306409</v>
+        <v>2.10325774111004</v>
       </c>
       <c r="M41">
-        <v>5.404142711277932</v>
+        <v>2.826072386442873</v>
       </c>
       <c r="N41">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="O41">
         <v>24</v>
@@ -2247,10 +2247,10 @@
         <v>138</v>
       </c>
       <c r="Q41">
-        <v>0.8720622178335899</v>
+        <v>0.903840006548863</v>
       </c>
       <c r="R41">
-        <v>4.008437209955846</v>
+        <v>1.051492054370788</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2258,22 +2258,22 @@
         <v>58</v>
       </c>
       <c r="F42">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
       <c r="J42">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K42">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L42">
-        <v>43.2169427794157</v>
+        <v>26.82810769979675</v>
       </c>
       <c r="M42">
-        <v>44.13231421710053</v>
+        <v>27.91145120058936</v>
       </c>
       <c r="N42">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O42">
         <v>48</v>
@@ -2282,10 +2282,10 @@
         <v>138</v>
       </c>
       <c r="Q42">
-        <v>1.754531779391677</v>
+        <v>1.909106377045724</v>
       </c>
       <c r="R42">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2293,34 +2293,34 @@
         <v>59</v>
       </c>
       <c r="B43">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C43">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D43">
-        <v>42.89360249896036</v>
+        <v>26.52360249896035</v>
       </c>
       <c r="E43">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
       <c r="F43">
-        <v>43.0065035592829</v>
+        <v>26.63687330612849</v>
       </c>
       <c r="G43">
-        <v>43.0065035592829</v>
+        <v>26.63687330612849</v>
       </c>
       <c r="H43">
-        <v>43.2169427794157</v>
+        <v>26.82810769979675</v>
       </c>
       <c r="I43">
-        <v>43.07308308070542</v>
+        <v>26.70832949502076</v>
       </c>
       <c r="P43" t="s">
         <v>139</v>
       </c>
       <c r="Q43">
-        <v>0.2130830807054238</v>
+        <v>0.2183294950207575</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2328,22 +2328,22 @@
         <v>60</v>
       </c>
       <c r="F44">
-        <v>43.10146836947848</v>
+        <v>26.71557849874847</v>
       </c>
       <c r="J44">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K44">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L44">
-        <v>43.23814355940653</v>
+        <v>26.95885064898955</v>
       </c>
       <c r="M44">
-        <v>44.16571077140259</v>
+        <v>28.0115746421756</v>
       </c>
       <c r="N44">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O44">
         <v>48</v>
@@ -2352,10 +2352,10 @@
         <v>138</v>
       </c>
       <c r="Q44">
-        <v>1.68346141944054</v>
+        <v>1.848488273659367</v>
       </c>
       <c r="R44">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2363,34 +2363,34 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C45">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D45">
-        <v>42.92719315645564</v>
+        <v>26.55719315645564</v>
       </c>
       <c r="E45">
-        <v>43.10146836947848</v>
+        <v>26.71557849874847</v>
       </c>
       <c r="F45">
-        <v>43.06192027596591</v>
+        <v>26.6522573046071</v>
       </c>
       <c r="G45">
-        <v>43.06192027596591</v>
+        <v>26.6522573046071</v>
       </c>
       <c r="H45">
-        <v>43.23814355940653</v>
+        <v>26.95885064898955</v>
       </c>
       <c r="I45">
-        <v>43.11823096551718</v>
+        <v>26.72256068595315</v>
       </c>
       <c r="P45" t="s">
         <v>139</v>
       </c>
       <c r="Q45">
-        <v>0.2582309655171855</v>
+        <v>0.2325606859531533</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2398,22 +2398,22 @@
         <v>62</v>
       </c>
       <c r="F46">
-        <v>43.19264016143772</v>
+        <v>26.77758967119487</v>
       </c>
       <c r="J46">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K46">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L46">
-        <v>43.45554466852573</v>
+        <v>26.95031517983605</v>
       </c>
       <c r="M46">
-        <v>44.29943560726822</v>
+        <v>27.97818766167884</v>
       </c>
       <c r="N46">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O46">
         <v>48</v>
@@ -2422,10 +2422,10 @@
         <v>138</v>
       </c>
       <c r="Q46">
-        <v>1.592289627481293</v>
+        <v>1.786477101212959</v>
       </c>
       <c r="R46">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -2433,34 +2433,34 @@
         <v>63</v>
       </c>
       <c r="B47">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C47">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D47">
-        <v>42.96057268731969</v>
+        <v>26.59057268731969</v>
       </c>
       <c r="E47">
-        <v>43.19264016143772</v>
+        <v>26.77786710707975</v>
       </c>
       <c r="F47">
-        <v>43.14236132881534</v>
+        <v>26.76424342599579</v>
       </c>
       <c r="G47">
-        <v>43.14236132881534</v>
+        <v>26.76424342599579</v>
       </c>
       <c r="H47">
-        <v>43.45554466852573</v>
+        <v>27.04169674094734</v>
       </c>
       <c r="I47">
-        <v>43.20788282892029</v>
+        <v>26.80617555090129</v>
       </c>
       <c r="P47" t="s">
         <v>139</v>
       </c>
       <c r="Q47">
-        <v>0.3478828289202909</v>
+        <v>0.316175550901292</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2468,22 +2468,22 @@
         <v>64</v>
       </c>
       <c r="F48">
-        <v>43.25641372864484</v>
+        <v>26.77786710707975</v>
       </c>
       <c r="J48">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K48">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L48">
-        <v>43.4652025296933</v>
+        <v>27.04169674094734</v>
       </c>
       <c r="M48">
-        <v>44.33303752090823</v>
+        <v>28.04499915938426</v>
       </c>
       <c r="N48">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O48">
         <v>48</v>
@@ -2492,10 +2492,10 @@
         <v>138</v>
       </c>
       <c r="Q48">
-        <v>1.528516060274178</v>
+        <v>1.78619966532808</v>
       </c>
       <c r="R48">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2503,34 +2503,34 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C49">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D49">
-        <v>42.9939653949028</v>
+        <v>26.6239653949028</v>
       </c>
       <c r="E49">
-        <v>43.31033484220245</v>
+        <v>26.77758967119487</v>
       </c>
       <c r="F49">
-        <v>43.25574688981342</v>
+        <v>26.69823898866958</v>
       </c>
       <c r="G49">
-        <v>43.25574688981342</v>
+        <v>26.69823898866958</v>
       </c>
       <c r="H49">
-        <v>43.53986458152038</v>
+        <v>26.95031517983605</v>
       </c>
       <c r="I49">
-        <v>43.31624911181571</v>
+        <v>26.75666101874241</v>
       </c>
       <c r="P49" t="s">
         <v>139</v>
       </c>
       <c r="Q49">
-        <v>0.4562491118157155</v>
+        <v>0.2666610187424112</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -2538,22 +2538,22 @@
         <v>66</v>
       </c>
       <c r="F50">
-        <v>43.28937566112432</v>
+        <v>26.80987049458729</v>
       </c>
       <c r="J50">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K50">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L50">
-        <v>43.32917575047578</v>
+        <v>26.90179141797507</v>
       </c>
       <c r="M50">
-        <v>44.19905067819001</v>
+        <v>27.94484775489142</v>
       </c>
       <c r="N50">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O50">
         <v>48</v>
@@ -2562,10 +2562,10 @@
         <v>138</v>
       </c>
       <c r="Q50">
-        <v>1.495554127794691</v>
+        <v>1.754196277820544</v>
       </c>
       <c r="R50">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -2573,34 +2573,34 @@
         <v>67</v>
       </c>
       <c r="B51">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C51">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D51">
-        <v>43.02731501584724</v>
+        <v>26.65731501584724</v>
       </c>
       <c r="E51">
-        <v>43.25641372864484</v>
+        <v>26.93079912113999</v>
       </c>
       <c r="F51">
-        <v>43.19022467096393</v>
+        <v>26.87660590535738</v>
       </c>
       <c r="G51">
-        <v>43.19022467096393</v>
+        <v>26.87660590535738</v>
       </c>
       <c r="H51">
-        <v>43.4652025296933</v>
+        <v>27.13992910055934</v>
       </c>
       <c r="I51">
-        <v>43.24026236644998</v>
+        <v>26.92896152591979</v>
       </c>
       <c r="P51" t="s">
         <v>139</v>
       </c>
       <c r="Q51">
-        <v>0.3802623664499762</v>
+        <v>0.4389615259197868</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -2608,34 +2608,34 @@
         <v>68</v>
       </c>
       <c r="B52">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C52">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D52">
-        <v>43.06077474039372</v>
+        <v>26.69091427074748</v>
       </c>
       <c r="E52">
-        <v>43.28983119131983</v>
+        <v>26.80987049458729</v>
       </c>
       <c r="F52">
-        <v>43.2558628962943</v>
+        <v>26.78964098714483</v>
       </c>
       <c r="G52">
-        <v>43.2558628962943</v>
+        <v>26.78964098714483</v>
       </c>
       <c r="H52">
-        <v>43.49766542202914</v>
+        <v>26.90179141797507</v>
       </c>
       <c r="I52">
-        <v>43.33723060765676</v>
+        <v>26.83952174168645</v>
       </c>
       <c r="P52" t="s">
         <v>139</v>
       </c>
       <c r="Q52">
-        <v>0.4772306076567645</v>
+        <v>0.3495217416864485</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2643,22 +2643,22 @@
         <v>69</v>
       </c>
       <c r="F53">
-        <v>43.33251016971655</v>
+        <v>26.93079912113999</v>
       </c>
       <c r="J53">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K53">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L53">
-        <v>43.48450598234314</v>
+        <v>27.13992910055934</v>
       </c>
       <c r="M53">
-        <v>44.36644838896176</v>
+        <v>28.11217450439706</v>
       </c>
       <c r="N53">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O53">
         <v>48</v>
@@ -2667,10 +2667,10 @@
         <v>138</v>
       </c>
       <c r="Q53">
-        <v>1.452419619202466</v>
+        <v>1.63326765126784</v>
       </c>
       <c r="R53">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -2678,34 +2678,34 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C54">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D54">
-        <v>43.09438458002969</v>
+        <v>26.72429060319894</v>
       </c>
       <c r="E54">
-        <v>43.32828072230548</v>
+        <v>26.9103634317633</v>
       </c>
       <c r="F54">
-        <v>43.30396589432929</v>
+        <v>26.89468326249176</v>
       </c>
       <c r="G54">
-        <v>43.30396589432929</v>
+        <v>26.89468326249176</v>
       </c>
       <c r="H54">
-        <v>43.44966139191573</v>
+        <v>27.08939741367954</v>
       </c>
       <c r="I54">
-        <v>43.3720352811182</v>
+        <v>26.95609735157707</v>
       </c>
       <c r="P54" t="s">
         <v>139</v>
       </c>
       <c r="Q54">
-        <v>0.5120352811182016</v>
+        <v>0.4660973515770763</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -2713,22 +2713,22 @@
         <v>71</v>
       </c>
       <c r="F55">
-        <v>43.31033484220245</v>
+        <v>26.9103634317633</v>
       </c>
       <c r="J55">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K55">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L55">
-        <v>43.53986458152038</v>
+        <v>27.08939741367954</v>
       </c>
       <c r="M55">
-        <v>44.46701014168681</v>
+        <v>28.07857259075705</v>
       </c>
       <c r="N55">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O55">
         <v>48</v>
@@ -2737,10 +2737,10 @@
         <v>138</v>
       </c>
       <c r="Q55">
-        <v>1.474594946716564</v>
+        <v>1.653703340644533</v>
       </c>
       <c r="R55">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -2748,34 +2748,34 @@
         <v>72</v>
       </c>
       <c r="B56">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C56">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D56">
-        <v>43.12798699929774</v>
+        <v>26.75763981577475</v>
       </c>
       <c r="E56">
-        <v>43.35544811003883</v>
+        <v>27.00370243071315</v>
       </c>
       <c r="F56">
-        <v>43.28336003281635</v>
+        <v>26.97653927210699</v>
       </c>
       <c r="G56">
-        <v>43.28336003281635</v>
+        <v>26.97653927210699</v>
       </c>
       <c r="H56">
-        <v>43.52446950145016</v>
+        <v>27.20750637514795</v>
       </c>
       <c r="I56">
-        <v>43.35716716682876</v>
+        <v>27.03997870569393</v>
       </c>
       <c r="P56" t="s">
         <v>139</v>
       </c>
       <c r="Q56">
-        <v>0.4971671668287598</v>
+        <v>0.5499787056939347</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -2783,22 +2783,22 @@
         <v>73</v>
       </c>
       <c r="F57">
-        <v>43.28983119131983</v>
+        <v>27.00073805725034</v>
       </c>
       <c r="J57">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K57">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L57">
-        <v>43.49766542202914</v>
+        <v>27.23077499863629</v>
       </c>
       <c r="M57">
-        <v>44.39995991166693</v>
+        <v>28.24614712517564</v>
       </c>
       <c r="N57">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O57">
         <v>48</v>
@@ -2807,10 +2807,10 @@
         <v>138</v>
       </c>
       <c r="Q57">
-        <v>1.495098597599181</v>
+        <v>1.563328715157496</v>
       </c>
       <c r="R57">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -2818,34 +2818,34 @@
         <v>74</v>
       </c>
       <c r="B58">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C58">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D58">
-        <v>43.16152810362006</v>
+        <v>26.79111282977001</v>
       </c>
       <c r="E58">
-        <v>43.33251016971655</v>
+        <v>27.12362125597814</v>
       </c>
       <c r="F58">
-        <v>43.25458732225809</v>
+        <v>27.03280490224034</v>
       </c>
       <c r="G58">
-        <v>43.25458732225809</v>
+        <v>27.03280490224034</v>
       </c>
       <c r="H58">
-        <v>43.48450598234314</v>
+        <v>27.35071144551864</v>
       </c>
       <c r="I58">
-        <v>43.30085333403866</v>
+        <v>27.10806808800319</v>
       </c>
       <c r="P58" t="s">
         <v>139</v>
       </c>
       <c r="Q58">
-        <v>0.440853334038664</v>
+        <v>0.6180680880031915</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -2853,22 +2853,22 @@
         <v>75</v>
       </c>
       <c r="F59">
-        <v>43.35544811003883</v>
+        <v>27.00370243071315</v>
       </c>
       <c r="J59">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K59">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L59">
-        <v>43.52446950145016</v>
+        <v>27.20750637514795</v>
       </c>
       <c r="M59">
-        <v>44.4334042667737</v>
+        <v>28.17909689515576</v>
       </c>
       <c r="N59">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O59">
         <v>48</v>
@@ -2877,10 +2877,10 @@
         <v>138</v>
       </c>
       <c r="Q59">
-        <v>1.429481678880187</v>
+        <v>1.56036434169468</v>
       </c>
       <c r="R59">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -2888,34 +2888,34 @@
         <v>76</v>
       </c>
       <c r="B60">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C60">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D60">
-        <v>43.19490516826671</v>
+        <v>26.82451149751862</v>
       </c>
       <c r="E60">
-        <v>43.28937566112432</v>
+        <v>27.00073805725034</v>
       </c>
       <c r="F60">
-        <v>43.23686975970404</v>
+        <v>26.94512967760709</v>
       </c>
       <c r="G60">
-        <v>43.23686975970404</v>
+        <v>26.94512967760709</v>
       </c>
       <c r="H60">
-        <v>43.32917575047578</v>
+        <v>27.23077499863629</v>
       </c>
       <c r="I60">
-        <v>43.29862033457301</v>
+        <v>27.01096281402071</v>
       </c>
       <c r="P60" t="s">
         <v>139</v>
       </c>
       <c r="Q60">
-        <v>0.4386203345730095</v>
+        <v>0.520962814020713</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -2923,22 +2923,22 @@
         <v>77</v>
       </c>
       <c r="F61">
-        <v>43.32828072230548</v>
+        <v>27.04862450495149</v>
       </c>
       <c r="J61">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K61">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L61">
-        <v>43.44966139191573</v>
+        <v>27.1514232306852</v>
       </c>
       <c r="M61">
-        <v>44.26586217589543</v>
+        <v>28.14558537245059</v>
       </c>
       <c r="N61">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O61">
         <v>48</v>
@@ -2947,10 +2947,10 @@
         <v>138</v>
       </c>
       <c r="Q61">
-        <v>1.456649066613537</v>
+        <v>1.515442267456343</v>
       </c>
       <c r="R61">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -2958,34 +2958,34 @@
         <v>78</v>
       </c>
       <c r="B62">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C62">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D62">
-        <v>43.22840378912962</v>
+        <v>26.85801688127149</v>
       </c>
       <c r="E62">
-        <v>43.4784021420525</v>
+        <v>27.04209362733497</v>
       </c>
       <c r="F62">
-        <v>43.41841528796937</v>
+        <v>27.01375366109708</v>
       </c>
       <c r="G62">
-        <v>43.41841528796937</v>
+        <v>27.01375366109708</v>
       </c>
       <c r="H62">
-        <v>43.66260249708081</v>
+        <v>27.248562329494</v>
       </c>
       <c r="I62">
-        <v>43.48928978461207</v>
+        <v>27.06044957061066</v>
       </c>
       <c r="P62" t="s">
         <v>139</v>
       </c>
       <c r="Q62">
-        <v>0.6292897846120695</v>
+        <v>0.5704495706106592</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -2993,22 +2993,22 @@
         <v>79</v>
       </c>
       <c r="F63">
-        <v>43.42417078060036</v>
+        <v>27.04209362733497</v>
       </c>
       <c r="J63">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K63">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L63">
-        <v>43.44781051135319</v>
+        <v>27.248562329494</v>
       </c>
       <c r="M63">
-        <v>44.23243765868676</v>
+        <v>28.31322363986253</v>
       </c>
       <c r="N63">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O63">
         <v>48</v>
@@ -3017,10 +3017,10 @@
         <v>138</v>
       </c>
       <c r="Q63">
-        <v>1.360759008318652</v>
+        <v>1.521973145072867</v>
       </c>
       <c r="R63">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3028,34 +3028,34 @@
         <v>80</v>
       </c>
       <c r="B64">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C64">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D64">
-        <v>43.26180551561511</v>
+        <v>26.8914954320258</v>
       </c>
       <c r="E64">
-        <v>43.42417078060036</v>
+        <v>27.04862450495149</v>
       </c>
       <c r="F64">
-        <v>43.38385973859472</v>
+        <v>27.00116750216601</v>
       </c>
       <c r="G64">
-        <v>43.38385973859472</v>
+        <v>27.00116750216601</v>
       </c>
       <c r="H64">
-        <v>43.44781051135319</v>
+        <v>27.1514232306852</v>
       </c>
       <c r="I64">
-        <v>43.42916599108997</v>
+        <v>27.05208772605247</v>
       </c>
       <c r="P64" t="s">
         <v>139</v>
       </c>
       <c r="Q64">
-        <v>0.5691659910899673</v>
+        <v>0.562087726052475</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3063,22 +3063,22 @@
         <v>81</v>
       </c>
       <c r="F65">
-        <v>43.42704416270264</v>
+        <v>27.12362125597814</v>
       </c>
       <c r="J65">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K65">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L65">
-        <v>43.66350004869338</v>
+        <v>27.35071144551864</v>
       </c>
       <c r="M65">
-        <v>44.5340866563737</v>
+        <v>28.38019190162999</v>
       </c>
       <c r="N65">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O65">
         <v>48</v>
@@ -3087,10 +3087,10 @@
         <v>138</v>
       </c>
       <c r="Q65">
-        <v>1.357885626216373</v>
+        <v>1.440445516429694</v>
       </c>
       <c r="R65">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -3098,34 +3098,34 @@
         <v>82</v>
       </c>
       <c r="B66">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C66">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D66">
-        <v>43.29522218147061</v>
+        <v>26.92493870587213</v>
       </c>
       <c r="E66">
-        <v>43.59895407597814</v>
+        <v>27.21444788697274</v>
       </c>
       <c r="F66">
-        <v>43.55313363367022</v>
+        <v>27.14868896092073</v>
       </c>
       <c r="G66">
-        <v>43.55313363367022</v>
+        <v>27.14868896092073</v>
       </c>
       <c r="H66">
-        <v>43.82940577672201</v>
+        <v>27.47683532749927</v>
       </c>
       <c r="I66">
-        <v>43.60267022702014</v>
+        <v>27.22048557617361</v>
       </c>
       <c r="P66" t="s">
         <v>139</v>
       </c>
       <c r="Q66">
-        <v>0.7426702270201417</v>
+        <v>0.73048557617361</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -3133,22 +3133,22 @@
         <v>83</v>
       </c>
       <c r="F67">
-        <v>43.4784021420525</v>
+        <v>27.07261492620754</v>
       </c>
       <c r="J67">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K67">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L67">
-        <v>43.66260249708081</v>
+        <v>27.2466429440835</v>
       </c>
       <c r="M67">
-        <v>44.50049242383472</v>
+        <v>28.27962940732355</v>
       </c>
       <c r="N67">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O67">
         <v>48</v>
@@ -3157,10 +3157,10 @@
         <v>138</v>
       </c>
       <c r="Q67">
-        <v>1.30652764686652</v>
+        <v>1.491451846200295</v>
       </c>
       <c r="R67">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -3168,34 +3168,34 @@
         <v>84</v>
       </c>
       <c r="B68">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C68">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D68">
-        <v>43.32880019929663</v>
+        <v>26.95854938766126</v>
       </c>
       <c r="E68">
-        <v>43.57652363264231</v>
+        <v>27.07261492620754</v>
       </c>
       <c r="F68">
-        <v>43.54895423619969</v>
+        <v>27.03940449169091</v>
       </c>
       <c r="G68">
-        <v>43.54895423619969</v>
+        <v>27.03940449169091</v>
       </c>
       <c r="H68">
-        <v>43.68775765023122</v>
+        <v>27.2466429440835</v>
       </c>
       <c r="I68">
-        <v>43.60417864495358</v>
+        <v>27.10986842653531</v>
       </c>
       <c r="P68" t="s">
         <v>139</v>
       </c>
       <c r="Q68">
-        <v>0.7441786449535854</v>
+        <v>0.6198684265353158</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -3203,22 +3203,22 @@
         <v>85</v>
       </c>
       <c r="F69">
-        <v>43.52370022767489</v>
+        <v>27.17235401936305</v>
       </c>
       <c r="J69">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K69">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L69">
-        <v>43.7110422406931</v>
+        <v>27.21947568036126</v>
       </c>
       <c r="M69">
-        <v>44.60105491814117</v>
+        <v>28.21254125026253</v>
       </c>
       <c r="N69">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O69">
         <v>48</v>
@@ -3227,10 +3227,10 @@
         <v>138</v>
       </c>
       <c r="Q69">
-        <v>1.261229561244122</v>
+        <v>1.391712753044786</v>
       </c>
       <c r="R69">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -3238,34 +3238,34 @@
         <v>86</v>
       </c>
       <c r="B70">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C70">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D70">
-        <v>43.36240776403653</v>
+        <v>26.99212696272862</v>
       </c>
       <c r="E70">
-        <v>43.42704416270264</v>
+        <v>27.17235401936305</v>
       </c>
       <c r="F70">
-        <v>43.39512414039046</v>
+        <v>27.09963606740791</v>
       </c>
       <c r="G70">
-        <v>43.39512414039046</v>
+        <v>27.09963606740791</v>
       </c>
       <c r="H70">
-        <v>43.66350004869338</v>
+        <v>27.21947568036126</v>
       </c>
       <c r="I70">
-        <v>43.44978784830325</v>
+        <v>27.15185960180571</v>
       </c>
       <c r="P70" t="s">
         <v>139</v>
       </c>
       <c r="Q70">
-        <v>0.5897878483032457</v>
+        <v>0.661859601805709</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -3273,22 +3273,22 @@
         <v>87</v>
       </c>
       <c r="F71">
-        <v>43.59895407597814</v>
+        <v>27.17748068245967</v>
       </c>
       <c r="J71">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K71">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L71">
-        <v>43.82940577672201</v>
+        <v>27.36764640900504</v>
       </c>
       <c r="M71">
-        <v>44.66803855762227</v>
+        <v>28.44717554111108</v>
       </c>
       <c r="N71">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O71">
         <v>48</v>
@@ -3297,10 +3297,10 @@
         <v>138</v>
       </c>
       <c r="Q71">
-        <v>1.185975712940873</v>
+        <v>1.386586089948167</v>
       </c>
       <c r="R71">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -3308,34 +3308,34 @@
         <v>88</v>
       </c>
       <c r="B72">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C72">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D72">
-        <v>43.3959253720129</v>
+        <v>27.02573452746852</v>
       </c>
       <c r="E72">
-        <v>43.68376420652602</v>
+        <v>27.17748068245967</v>
       </c>
       <c r="F72">
-        <v>43.59073203170036</v>
+        <v>27.13736121099472</v>
       </c>
       <c r="G72">
-        <v>43.59073203170036</v>
+        <v>27.13736121099472</v>
       </c>
       <c r="H72">
-        <v>43.90916086244027</v>
+        <v>27.36764640900504</v>
       </c>
       <c r="I72">
-        <v>43.65705481817543</v>
+        <v>27.1991141860037</v>
       </c>
       <c r="P72" t="s">
         <v>139</v>
       </c>
       <c r="Q72">
-        <v>0.7970548181754324</v>
+        <v>0.7091141860036991</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -3343,22 +3343,22 @@
         <v>89</v>
       </c>
       <c r="F73">
-        <v>43.57652363264231</v>
+        <v>27.21444788697274</v>
       </c>
       <c r="J73">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K73">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L73">
-        <v>43.68775765023122</v>
+        <v>27.47683532749927</v>
       </c>
       <c r="M73">
-        <v>44.56745202908255</v>
+        <v>28.51394606025268</v>
       </c>
       <c r="N73">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O73">
         <v>48</v>
@@ -3367,10 +3367,10 @@
         <v>138</v>
       </c>
       <c r="Q73">
-        <v>1.208406156276709</v>
+        <v>1.349618885435095</v>
       </c>
       <c r="R73">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -3378,34 +3378,34 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C74">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D74">
-        <v>43.42933435762744</v>
+        <v>27.05922153403543</v>
       </c>
       <c r="E74">
-        <v>43.52370022767489</v>
+        <v>27.2943436937863</v>
       </c>
       <c r="F74">
-        <v>43.47040996956755</v>
+        <v>27.27310494486693</v>
       </c>
       <c r="G74">
-        <v>43.47040996956755</v>
+        <v>27.27310494486693</v>
       </c>
       <c r="H74">
-        <v>43.7110422406931</v>
+        <v>27.35805869514687</v>
       </c>
       <c r="I74">
-        <v>43.51009291557462</v>
+        <v>27.35017109001328</v>
       </c>
       <c r="P74" t="s">
         <v>139</v>
       </c>
       <c r="Q74">
-        <v>0.6500929155746249</v>
+        <v>0.8601710900132815</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -3413,22 +3413,22 @@
         <v>91</v>
       </c>
       <c r="F75">
-        <v>43.68376420652602</v>
+        <v>27.27898427200561</v>
       </c>
       <c r="J75">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K75">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L75">
-        <v>43.90916086244027</v>
+        <v>27.32704185737553</v>
       </c>
       <c r="M75">
-        <v>44.70144563161185</v>
+        <v>28.34658901257137</v>
       </c>
       <c r="N75">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O75">
         <v>48</v>
@@ -3437,10 +3437,10 @@
         <v>138</v>
       </c>
       <c r="Q75">
-        <v>1.101165582392994</v>
+        <v>1.285082500402229</v>
       </c>
       <c r="R75">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -3448,34 +3448,34 @@
         <v>92</v>
       </c>
       <c r="B76">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C76">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D76">
-        <v>43.46269332942403</v>
+        <v>27.09267252730559</v>
       </c>
       <c r="E76">
-        <v>43.76987800473719</v>
+        <v>27.27706730398372</v>
       </c>
       <c r="F76">
-        <v>43.68417042931209</v>
+        <v>27.23588397969719</v>
       </c>
       <c r="G76">
-        <v>43.68417042931209</v>
+        <v>27.23588397969719</v>
       </c>
       <c r="H76">
-        <v>44.02552082674209</v>
+        <v>27.38481437154</v>
       </c>
       <c r="I76">
-        <v>43.7601707213833</v>
+        <v>27.3091815105617</v>
       </c>
       <c r="P76" t="s">
         <v>139</v>
       </c>
       <c r="Q76">
-        <v>0.9001707213832972</v>
+        <v>0.8191815105616982</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -3483,22 +3483,22 @@
         <v>93</v>
       </c>
       <c r="F77">
-        <v>43.6423151043241</v>
+        <v>27.27706730398372</v>
       </c>
       <c r="J77">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K77">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L77">
-        <v>43.72592488781221</v>
+        <v>27.38481437154</v>
       </c>
       <c r="M77">
-        <v>44.63443785364566</v>
+        <v>28.48058261510067</v>
       </c>
       <c r="N77">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O77">
         <v>48</v>
@@ -3507,10 +3507,10 @@
         <v>138</v>
       </c>
       <c r="Q77">
-        <v>1.142614684594911</v>
+        <v>1.286999468424117</v>
       </c>
       <c r="R77">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -3518,22 +3518,22 @@
         <v>94</v>
       </c>
       <c r="F78">
-        <v>43.76987800473719</v>
+        <v>27.2943436937863</v>
       </c>
       <c r="J78">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K78">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L78">
-        <v>44.02552082674209</v>
+        <v>27.35805869514687</v>
       </c>
       <c r="M78">
-        <v>44.76826312225235</v>
+        <v>28.41357483713448</v>
       </c>
       <c r="N78">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O78">
         <v>48</v>
@@ -3542,10 +3542,10 @@
         <v>138</v>
       </c>
       <c r="Q78">
-        <v>1.015051784181821</v>
+        <v>1.269723078621531</v>
       </c>
       <c r="R78">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -3553,34 +3553,34 @@
         <v>95</v>
       </c>
       <c r="B79">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C79">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D79">
-        <v>43.4962036386955</v>
+        <v>27.12618283657706</v>
       </c>
       <c r="E79">
-        <v>43.6423151043241</v>
+        <v>27.27898427200561</v>
       </c>
       <c r="F79">
-        <v>43.60856877311787</v>
+        <v>27.19524077543394</v>
       </c>
       <c r="G79">
-        <v>43.60856877311787</v>
+        <v>27.19524077543394</v>
       </c>
       <c r="H79">
-        <v>43.72592488781221</v>
+        <v>27.32704185737553</v>
       </c>
       <c r="I79">
-        <v>43.68152867615834</v>
+        <v>27.24294126826266</v>
       </c>
       <c r="P79" t="s">
         <v>139</v>
       </c>
       <c r="Q79">
-        <v>0.8215286761583442</v>
+        <v>0.7529412682626635</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -3588,34 +3588,34 @@
         <v>96</v>
       </c>
       <c r="B80">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="C80">
-        <v>42.86</v>
+        <v>26.49</v>
       </c>
       <c r="D80">
-        <v>43.52978806329871</v>
+        <v>27.15953707098264</v>
       </c>
       <c r="E80">
-        <v>43.84561125671654</v>
+        <v>27.44400916643266</v>
       </c>
       <c r="F80">
-        <v>43.79794342459083</v>
+        <v>27.3737576823926</v>
       </c>
       <c r="G80">
-        <v>43.79794342459083</v>
+        <v>27.3737576823926</v>
       </c>
       <c r="H80">
-        <v>43.9352224589689</v>
+        <v>27.67705344916941</v>
       </c>
       <c r="I80">
-        <v>43.86785120549082</v>
+        <v>27.4275461175537</v>
       </c>
       <c r="P80" t="s">
         <v>139</v>
       </c>
       <c r="Q80">
-        <v>1.007851205490823</v>
+        <v>0.9375461175536977</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -3623,22 +3623,22 @@
         <v>97</v>
       </c>
       <c r="F81">
-        <v>43.84561125671654</v>
+        <v>27.44400916643266</v>
       </c>
       <c r="J81">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="K81">
-        <v>5.487723434414336</v>
+        <v>2.842739053109539</v>
       </c>
       <c r="L81">
-        <v>43.9352224589689</v>
+        <v>27.67705344916941</v>
       </c>
       <c r="M81">
-        <v>44.73480907676386</v>
+        <v>28.54740010574117</v>
       </c>
       <c r="N81">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="O81">
         <v>48</v>
@@ -3647,10 +3647,10 @@
         <v>138</v>
       </c>
       <c r="Q81">
-        <v>0.9393185322024777</v>
+        <v>1.120057605975173</v>
       </c>
       <c r="R81">
-        <v>43.03039800952734</v>
+        <v>26.65496039536211</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -3658,22 +3658,22 @@
         <v>98</v>
       </c>
       <c r="F82">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
       <c r="J82">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K82">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L82">
-        <v>62.09873749200791</v>
+        <v>69.39517021951809</v>
       </c>
       <c r="M82">
-        <v>62.97413906567319</v>
+        <v>70.15026923018736</v>
       </c>
       <c r="N82">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O82">
         <v>72</v>
@@ -3682,10 +3682,10 @@
         <v>138</v>
       </c>
       <c r="Q82">
-        <v>1.647529254226583</v>
+        <v>1.550023207015741</v>
       </c>
       <c r="R82">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -3693,34 +3693,34 @@
         <v>99</v>
       </c>
       <c r="B83">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C83">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D83">
-        <v>61.65353326507306</v>
+        <v>68.99353326507305</v>
       </c>
       <c r="E83">
-        <v>61.91809158892496</v>
+        <v>69.30726434526751</v>
       </c>
       <c r="F83">
-        <v>61.84238834497276</v>
+        <v>69.21833394250339</v>
       </c>
       <c r="G83">
-        <v>61.84238834497276</v>
+        <v>69.21833394250339</v>
       </c>
       <c r="H83">
-        <v>62.0701624331877</v>
+        <v>69.36265785910257</v>
       </c>
       <c r="I83">
-        <v>61.90884456029963</v>
+        <v>69.29412470255021</v>
       </c>
       <c r="P83" t="s">
         <v>139</v>
       </c>
       <c r="Q83">
-        <v>0.2888445602996299</v>
+        <v>0.3341247025502128</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -3728,22 +3728,22 @@
         <v>100</v>
       </c>
       <c r="F84">
-        <v>61.91809158892496</v>
+        <v>69.30726434526751</v>
       </c>
       <c r="J84">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K84">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L84">
-        <v>62.0701624331877</v>
+        <v>69.36265785910257</v>
       </c>
       <c r="M84">
-        <v>62.8736442497047</v>
+        <v>70.11683868564744</v>
       </c>
       <c r="N84">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O84">
         <v>72</v>
@@ -3752,10 +3752,10 @@
         <v>138</v>
       </c>
       <c r="Q84">
-        <v>1.608105586417672</v>
+        <v>1.462127266017873</v>
       </c>
       <c r="R84">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -3763,34 +3763,34 @@
         <v>101</v>
       </c>
       <c r="B85">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C85">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D85">
-        <v>61.68695002125867</v>
+        <v>69.02695002125867</v>
       </c>
       <c r="E85">
-        <v>62.0223538546969</v>
+        <v>69.35986468788771</v>
       </c>
       <c r="F85">
-        <v>61.93435877524232</v>
+        <v>69.28996930759548</v>
       </c>
       <c r="G85">
-        <v>61.93435877524232</v>
+        <v>69.28996930759548</v>
       </c>
       <c r="H85">
-        <v>62.07394751481873</v>
+        <v>69.47646445810638</v>
       </c>
       <c r="I85">
-        <v>62.01180518186892</v>
+        <v>69.33873882506384</v>
       </c>
       <c r="P85" t="s">
         <v>139</v>
       </c>
       <c r="Q85">
-        <v>0.391805181868925</v>
+        <v>0.3787388250638486</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -3798,22 +3798,22 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>61.94357053016668</v>
+        <v>69.34725053593645</v>
       </c>
       <c r="J86">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K86">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L86">
-        <v>62.17065679762507</v>
+        <v>69.42251203404186</v>
       </c>
       <c r="M86">
-        <v>63.00765344196632</v>
+        <v>70.18378315910215</v>
       </c>
       <c r="N86">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O86">
         <v>72</v>
@@ -3822,10 +3822,10 @@
         <v>138</v>
       </c>
       <c r="Q86">
-        <v>1.582626645175949</v>
+        <v>1.422141075348932</v>
       </c>
       <c r="R86">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -3833,34 +3833,34 @@
         <v>103</v>
       </c>
       <c r="B87">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C87">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D87">
-        <v>61.72039679706663</v>
+        <v>69.06039679706662</v>
       </c>
       <c r="E87">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
       <c r="F87">
-        <v>61.79513346187314</v>
+        <v>69.17903651892962</v>
       </c>
       <c r="G87">
-        <v>61.79513346187314</v>
+        <v>69.17903651892962</v>
       </c>
       <c r="H87">
-        <v>62.09873749200791</v>
+        <v>69.39517021951809</v>
       </c>
       <c r="I87">
-        <v>61.85753050957265</v>
+        <v>69.23208685452236</v>
       </c>
       <c r="P87" t="s">
         <v>139</v>
       </c>
       <c r="Q87">
-        <v>0.2375305095726574</v>
+        <v>0.2720868545223709</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -3868,22 +3868,22 @@
         <v>104</v>
       </c>
       <c r="F88">
-        <v>61.96019423129</v>
+        <v>69.35986468788771</v>
       </c>
       <c r="J88">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K88">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L88">
-        <v>62.22219055969301</v>
+        <v>69.47646445810638</v>
       </c>
       <c r="M88">
-        <v>63.0747933988932</v>
+        <v>70.21733350161593</v>
       </c>
       <c r="N88">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O88">
         <v>72</v>
@@ -3892,10 +3892,10 @@
         <v>138</v>
       </c>
       <c r="Q88">
-        <v>1.566002944052634</v>
+        <v>1.409526923397678</v>
       </c>
       <c r="R88">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -3903,34 +3903,34 @@
         <v>105</v>
       </c>
       <c r="B89">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C89">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D89">
-        <v>61.75381225684511</v>
+        <v>69.0938122568451</v>
       </c>
       <c r="E89">
-        <v>61.96019423129</v>
+        <v>69.37776816328179</v>
       </c>
       <c r="F89">
-        <v>61.90672622037697</v>
+        <v>69.32839275499137</v>
       </c>
       <c r="G89">
-        <v>61.90672622037697</v>
+        <v>69.32839275499137</v>
       </c>
       <c r="H89">
-        <v>62.22219055969301</v>
+        <v>69.58794189165785</v>
       </c>
       <c r="I89">
-        <v>61.95288024240514</v>
+        <v>69.39349645059866</v>
       </c>
       <c r="P89" t="s">
         <v>139</v>
       </c>
       <c r="Q89">
-        <v>0.332880242405146</v>
+        <v>0.4334964505986676</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -3938,22 +3938,22 @@
         <v>106</v>
       </c>
       <c r="F90">
-        <v>62.0223538546969</v>
+        <v>69.32444278871013</v>
       </c>
       <c r="J90">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K90">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L90">
-        <v>62.07394751481873</v>
+        <v>69.58949641253227</v>
       </c>
       <c r="M90">
-        <v>62.90707479424462</v>
+        <v>70.31798783483593</v>
       </c>
       <c r="N90">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O90">
         <v>72</v>
@@ -3962,10 +3962,10 @@
         <v>138</v>
       </c>
       <c r="Q90">
-        <v>1.503843320645728</v>
+        <v>1.444948822575256</v>
       </c>
       <c r="R90">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -3973,34 +3973,34 @@
         <v>107</v>
       </c>
       <c r="B91">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C91">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D91">
-        <v>61.78726238082671</v>
+        <v>69.12726238082671</v>
       </c>
       <c r="E91">
-        <v>62.04598988755082</v>
+        <v>69.32444278871013</v>
       </c>
       <c r="F91">
-        <v>62.01454526027727</v>
+        <v>69.29311311484317</v>
       </c>
       <c r="G91">
-        <v>62.01454526027727</v>
+        <v>69.29311311484317</v>
       </c>
       <c r="H91">
-        <v>62.08319789258372</v>
+        <v>69.58949641253227</v>
       </c>
       <c r="I91">
-        <v>62.0719474245678</v>
+        <v>69.34494553374257</v>
       </c>
       <c r="P91" t="s">
         <v>139</v>
       </c>
       <c r="Q91">
-        <v>0.4519474245678055</v>
+        <v>0.3849455337425809</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -4008,34 +4008,34 @@
         <v>108</v>
       </c>
       <c r="B92">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C92">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D92">
-        <v>61.82078385803373</v>
+        <v>69.16078385803372</v>
       </c>
       <c r="E92">
-        <v>61.94357053016668</v>
+        <v>69.34725053593645</v>
       </c>
       <c r="F92">
-        <v>61.87711496159138</v>
+        <v>69.25631157209097</v>
       </c>
       <c r="G92">
-        <v>61.87711496159138</v>
+        <v>69.25631157209097</v>
       </c>
       <c r="H92">
-        <v>62.17065679762507</v>
+        <v>69.42251203404186</v>
       </c>
       <c r="I92">
-        <v>61.94558299587801</v>
+        <v>69.3241424244782</v>
       </c>
       <c r="P92" t="s">
         <v>139</v>
       </c>
       <c r="Q92">
-        <v>0.3255829958780154</v>
+        <v>0.364142424478203</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -4043,22 +4043,22 @@
         <v>109</v>
       </c>
       <c r="F93">
-        <v>62.00194643377866</v>
+        <v>69.37776816328179</v>
       </c>
       <c r="J93">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K93">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L93">
-        <v>62.24656343370767</v>
+        <v>69.58794189165785</v>
       </c>
       <c r="M93">
-        <v>63.10818211019386</v>
+        <v>70.28439072046574</v>
       </c>
       <c r="N93">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O93">
         <v>72</v>
@@ -4067,10 +4067,10 @@
         <v>138</v>
       </c>
       <c r="Q93">
-        <v>1.524250741563975</v>
+        <v>1.3916234480036</v>
       </c>
       <c r="R93">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -4078,34 +4078,34 @@
         <v>110</v>
       </c>
       <c r="B94">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C94">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D94">
-        <v>61.85411730412809</v>
+        <v>69.19428816773259</v>
       </c>
       <c r="E94">
-        <v>62.00194643377866</v>
+        <v>69.42708819838373</v>
       </c>
       <c r="F94">
-        <v>61.9386754664676</v>
+        <v>69.35850929326857</v>
       </c>
       <c r="G94">
-        <v>61.9386754664676</v>
+        <v>69.35850929326857</v>
       </c>
       <c r="H94">
-        <v>62.24656343370767</v>
+        <v>69.58148284820325</v>
       </c>
       <c r="I94">
-        <v>61.98619181549774</v>
+        <v>69.41707059682273</v>
       </c>
       <c r="P94" t="s">
         <v>139</v>
       </c>
       <c r="Q94">
-        <v>0.3661918154977428</v>
+        <v>0.4570705968227315</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -4113,22 +4113,22 @@
         <v>111</v>
       </c>
       <c r="F95">
-        <v>62.04598988755082</v>
+        <v>69.42708819838373</v>
       </c>
       <c r="J95">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K95">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L95">
-        <v>62.08319789258372</v>
+        <v>69.58148284820325</v>
       </c>
       <c r="M95">
-        <v>62.94058872315941</v>
+        <v>70.25084787790905</v>
       </c>
       <c r="N95">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O95">
         <v>72</v>
@@ -4137,10 +4137,10 @@
         <v>138</v>
       </c>
       <c r="Q95">
-        <v>1.480207287791814</v>
+        <v>1.342303412901657</v>
       </c>
       <c r="R95">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -4148,34 +4148,34 @@
         <v>112</v>
       </c>
       <c r="B96">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C96">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D96">
-        <v>61.8875798008476</v>
+        <v>69.22774091444093</v>
       </c>
       <c r="E96">
-        <v>62.12825924006908</v>
+        <v>69.45642408149695</v>
       </c>
       <c r="F96">
-        <v>62.1117717817073</v>
+        <v>69.42565179363432</v>
       </c>
       <c r="G96">
-        <v>62.1117717817073</v>
+        <v>69.42565179363432</v>
       </c>
       <c r="H96">
-        <v>62.30601490350811</v>
+        <v>69.72045411109266</v>
       </c>
       <c r="I96">
-        <v>62.15797978864689</v>
+        <v>69.49419844288892</v>
       </c>
       <c r="P96" t="s">
         <v>139</v>
       </c>
       <c r="Q96">
-        <v>0.5379797886468936</v>
+        <v>0.5341984428889219</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -4183,22 +4183,22 @@
         <v>113</v>
       </c>
       <c r="F97">
-        <v>62.10418954548955</v>
+        <v>69.47790614952544</v>
       </c>
       <c r="J97">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K97">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L97">
-        <v>62.29807656082162</v>
+        <v>69.72287341462003</v>
       </c>
       <c r="M97">
-        <v>63.17489676640583</v>
+        <v>70.4514595970638</v>
       </c>
       <c r="N97">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O97">
         <v>72</v>
@@ -4207,10 +4207,10 @@
         <v>138</v>
       </c>
       <c r="Q97">
-        <v>1.422007629853084</v>
+        <v>1.291485461759947</v>
       </c>
       <c r="R97">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -4218,34 +4218,34 @@
         <v>114</v>
       </c>
       <c r="B98">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C98">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D98">
-        <v>61.92096027067988</v>
+        <v>69.26113360927454</v>
       </c>
       <c r="E98">
-        <v>62.10418954548955</v>
+        <v>69.51166725127808</v>
       </c>
       <c r="F98">
-        <v>62.04010679049444</v>
+        <v>69.46188978440573</v>
       </c>
       <c r="G98">
-        <v>62.04010679049444</v>
+        <v>69.46188978440573</v>
       </c>
       <c r="H98">
-        <v>62.29807656082162</v>
+        <v>69.62352493960074</v>
       </c>
       <c r="I98">
-        <v>62.09591230863087</v>
+        <v>69.53710958389161</v>
       </c>
       <c r="P98" t="s">
         <v>139</v>
       </c>
       <c r="Q98">
-        <v>0.4759123086308747</v>
+        <v>0.5771095838916125</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -4253,22 +4253,22 @@
         <v>115</v>
       </c>
       <c r="F99">
-        <v>62.12907656374567</v>
+        <v>69.51156909297971</v>
       </c>
       <c r="J99">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K99">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L99">
-        <v>62.18440280525461</v>
+        <v>69.7562689027264</v>
       </c>
       <c r="M99">
-        <v>63.041196284523</v>
+        <v>70.51846888273785</v>
       </c>
       <c r="N99">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O99">
         <v>72</v>
@@ -4277,10 +4277,10 @@
         <v>138</v>
       </c>
       <c r="Q99">
-        <v>1.397120611596961</v>
+        <v>1.257822518305673</v>
       </c>
       <c r="R99">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -4288,22 +4288,22 @@
         <v>116</v>
       </c>
       <c r="F100">
-        <v>62.17358325057962</v>
+        <v>69.45642408149695</v>
       </c>
       <c r="J100">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K100">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L100">
-        <v>62.30184759337802</v>
+        <v>69.72045411109266</v>
       </c>
       <c r="M100">
-        <v>63.20826516112107</v>
+        <v>70.41809120234856</v>
       </c>
       <c r="N100">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O100">
         <v>72</v>
@@ -4312,10 +4312,10 @@
         <v>138</v>
       </c>
       <c r="Q100">
-        <v>1.352613924763013</v>
+        <v>1.312967529788438</v>
       </c>
       <c r="R100">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -4323,34 +4323,34 @@
         <v>117</v>
       </c>
       <c r="B101">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C101">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D101">
-        <v>61.95450225349586</v>
+        <v>69.29449049692363</v>
       </c>
       <c r="E101">
-        <v>62.27533999238641</v>
+        <v>69.51156909297971</v>
       </c>
       <c r="F101">
-        <v>62.19961384067831</v>
+        <v>69.41791117119162</v>
       </c>
       <c r="G101">
-        <v>62.19961384067831</v>
+        <v>69.41791117119162</v>
       </c>
       <c r="H101">
-        <v>62.47566771998918</v>
+        <v>69.7562689027264</v>
       </c>
       <c r="I101">
-        <v>62.26173131590653</v>
+        <v>69.4866033250663</v>
       </c>
       <c r="P101" t="s">
         <v>139</v>
       </c>
       <c r="Q101">
-        <v>0.641731315906533</v>
+        <v>0.5266033250663043</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -4358,34 +4358,34 @@
         <v>118</v>
       </c>
       <c r="B102">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C102">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D102">
-        <v>61.98795070933225</v>
+        <v>69.32803247973962</v>
       </c>
       <c r="E102">
-        <v>62.12907656374567</v>
+        <v>69.47790614952544</v>
       </c>
       <c r="F102">
-        <v>62.06333713212532</v>
+        <v>69.38117805030858</v>
       </c>
       <c r="G102">
-        <v>62.06333713212532</v>
+        <v>69.38117805030858</v>
       </c>
       <c r="H102">
-        <v>62.18440280525461</v>
+        <v>69.72287341462003</v>
       </c>
       <c r="I102">
-        <v>62.1222136017502</v>
+        <v>69.44428611182934</v>
       </c>
       <c r="P102" t="s">
         <v>139</v>
       </c>
       <c r="Q102">
-        <v>0.5022136017501992</v>
+        <v>0.4842861118293484</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -4393,22 +4393,22 @@
         <v>119</v>
       </c>
       <c r="F103">
-        <v>62.12825924006908</v>
+        <v>69.51166725127808</v>
       </c>
       <c r="J103">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K103">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L103">
-        <v>62.30601490350811</v>
+        <v>69.62352493960074</v>
       </c>
       <c r="M103">
-        <v>63.24178445524458</v>
+        <v>70.35137654613659</v>
       </c>
       <c r="N103">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O103">
         <v>72</v>
@@ -4417,10 +4417,10 @@
         <v>138</v>
       </c>
       <c r="Q103">
-        <v>1.397937935273546</v>
+        <v>1.257724360007302</v>
       </c>
       <c r="R103">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -4428,22 +4428,22 @@
         <v>120</v>
       </c>
       <c r="F104">
-        <v>62.15066659033523</v>
+        <v>69.60553018568508</v>
       </c>
       <c r="J104">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K104">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L104">
-        <v>62.28025725603396</v>
+        <v>69.65509209564924</v>
       </c>
       <c r="M104">
-        <v>63.14152110464311</v>
+        <v>70.38471554058584</v>
       </c>
       <c r="N104">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O104">
         <v>72</v>
@@ -4452,10 +4452,10 @@
         <v>138</v>
       </c>
       <c r="Q104">
-        <v>1.375530585007404</v>
+        <v>1.163861425600302</v>
       </c>
       <c r="R104">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -4463,34 +4463,34 @@
         <v>121</v>
       </c>
       <c r="B105">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C105">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D105">
-        <v>62.02147747440183</v>
+        <v>69.36138604313662</v>
       </c>
       <c r="E105">
-        <v>62.30701155534013</v>
+        <v>69.6613494732613</v>
       </c>
       <c r="F105">
-        <v>62.28134943899434</v>
+        <v>69.62831676884498</v>
       </c>
       <c r="G105">
-        <v>62.28134943899434</v>
+        <v>69.62831676884498</v>
       </c>
       <c r="H105">
-        <v>62.46453609043071</v>
+        <v>69.87622194125292</v>
       </c>
       <c r="I105">
-        <v>62.35299911501355</v>
+        <v>69.69168036104107</v>
       </c>
       <c r="P105" t="s">
         <v>139</v>
       </c>
       <c r="Q105">
-        <v>0.7329991150135555</v>
+        <v>0.7316803610410716</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -4498,34 +4498,34 @@
         <v>122</v>
       </c>
       <c r="B106">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C106">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D106">
-        <v>62.05501940897867</v>
+        <v>69.39492797771345</v>
       </c>
       <c r="E106">
-        <v>62.17358325057962</v>
+        <v>69.60553018568508</v>
       </c>
       <c r="F106">
-        <v>62.08402408391267</v>
+        <v>69.55372221214493</v>
       </c>
       <c r="G106">
-        <v>62.08402408391267</v>
+        <v>69.55372221214493</v>
       </c>
       <c r="H106">
-        <v>62.30184759337802</v>
+        <v>69.65509209564924</v>
       </c>
       <c r="I106">
-        <v>62.15759113387476</v>
+        <v>69.59796127353363</v>
       </c>
       <c r="P106" t="s">
         <v>139</v>
       </c>
       <c r="Q106">
-        <v>0.5375911338747628</v>
+        <v>0.6379612735336337</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -4533,22 +4533,22 @@
         <v>123</v>
       </c>
       <c r="F107">
-        <v>62.23712243815836</v>
+        <v>69.68983369071799</v>
       </c>
       <c r="J107">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K107">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L107">
-        <v>62.48414267533497</v>
+        <v>69.77081627000422</v>
       </c>
       <c r="M107">
-        <v>63.34219595499293</v>
+        <v>70.55186276177699</v>
       </c>
       <c r="N107">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O107">
         <v>72</v>
@@ -4557,10 +4557,10 @@
         <v>138</v>
       </c>
       <c r="Q107">
-        <v>1.289074737184272</v>
+        <v>1.079557920567396</v>
       </c>
       <c r="R107">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -4568,34 +4568,34 @@
         <v>124</v>
       </c>
       <c r="B108">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C108">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D108">
-        <v>62.08842196405635</v>
+        <v>69.42827526059821</v>
       </c>
       <c r="E108">
-        <v>62.15066659033523</v>
+        <v>69.68983369071799</v>
       </c>
       <c r="F108">
-        <v>62.12022769234533</v>
+        <v>69.6108670471087</v>
       </c>
       <c r="G108">
-        <v>62.12022769234533</v>
+        <v>69.6108670471087</v>
       </c>
       <c r="H108">
-        <v>62.28025725603396</v>
+        <v>69.77081627000422</v>
       </c>
       <c r="I108">
-        <v>62.18135681426625</v>
+        <v>69.67209200098091</v>
       </c>
       <c r="P108" t="s">
         <v>139</v>
       </c>
       <c r="Q108">
-        <v>0.5613568142662544</v>
+        <v>0.7120920009809169</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -4603,22 +4603,22 @@
         <v>125</v>
       </c>
       <c r="F109">
-        <v>62.27533999238641</v>
+        <v>69.64141771681236</v>
       </c>
       <c r="J109">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K109">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L109">
-        <v>62.47566771998918</v>
+        <v>69.727271879733</v>
       </c>
       <c r="M109">
-        <v>63.30866832583425</v>
+        <v>70.48497889118731</v>
       </c>
       <c r="N109">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O109">
         <v>72</v>
@@ -4627,10 +4627,10 @@
         <v>138</v>
       </c>
       <c r="Q109">
-        <v>1.250857182956224</v>
+        <v>1.12797389447303</v>
       </c>
       <c r="R109">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -4638,22 +4638,22 @@
         <v>126</v>
       </c>
       <c r="F110">
-        <v>62.30701155534013</v>
+        <v>69.6613494732613</v>
       </c>
       <c r="J110">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K110">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L110">
-        <v>62.46453609043071</v>
+        <v>69.87622194125292</v>
       </c>
       <c r="M110">
-        <v>63.27527444679512</v>
+        <v>70.58539039093567</v>
       </c>
       <c r="N110">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O110">
         <v>72</v>
@@ -4662,10 +4662,10 @@
         <v>138</v>
       </c>
       <c r="Q110">
-        <v>1.219185620002499</v>
+        <v>1.108042138024089</v>
       </c>
       <c r="R110">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -4673,34 +4673,34 @@
         <v>127</v>
       </c>
       <c r="B111">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C111">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D111">
-        <v>62.12195509571226</v>
+        <v>69.46185621224427</v>
       </c>
       <c r="E111">
-        <v>62.23712243815836</v>
+        <v>69.74396097502189</v>
       </c>
       <c r="F111">
-        <v>62.18577308484824</v>
+        <v>69.70623235410724</v>
       </c>
       <c r="G111">
-        <v>62.18577308484824</v>
+        <v>69.70623235410724</v>
       </c>
       <c r="H111">
-        <v>62.48414267533497</v>
+        <v>69.99811743196088</v>
       </c>
       <c r="I111">
-        <v>62.24736026669657</v>
+        <v>69.75557426735554</v>
       </c>
       <c r="P111" t="s">
         <v>139</v>
       </c>
       <c r="Q111">
-        <v>0.6273602666965701</v>
+        <v>0.7955742673555477</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -4708,34 +4708,34 @@
         <v>128</v>
       </c>
       <c r="B112">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C112">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D112">
-        <v>62.15550115506901</v>
+        <v>69.49543877005073</v>
       </c>
       <c r="E112">
-        <v>62.31965920920506</v>
+        <v>69.64141771681236</v>
       </c>
       <c r="F112">
-        <v>62.29715019439363</v>
+        <v>69.62423999794963</v>
       </c>
       <c r="G112">
-        <v>62.29715019439363</v>
+        <v>69.62423999794963</v>
       </c>
       <c r="H112">
-        <v>62.50928713163119</v>
+        <v>69.727271879733</v>
       </c>
       <c r="I112">
-        <v>62.34647422880024</v>
+        <v>69.66195490673604</v>
       </c>
       <c r="P112" t="s">
         <v>139</v>
       </c>
       <c r="Q112">
-        <v>0.7264742288002424</v>
+        <v>0.7019549067360487</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -4743,22 +4743,22 @@
         <v>129</v>
       </c>
       <c r="F113">
-        <v>62.31965920920506</v>
+        <v>69.74396097502189</v>
       </c>
       <c r="J113">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K113">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L113">
-        <v>62.50928713163119</v>
+        <v>69.99811743196088</v>
       </c>
       <c r="M113">
-        <v>63.37574231557581</v>
+        <v>70.71935979659889</v>
       </c>
       <c r="N113">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O113">
         <v>72</v>
@@ -4767,10 +4767,10 @@
         <v>138</v>
       </c>
       <c r="Q113">
-        <v>1.206537966137574</v>
+        <v>1.025430636263494</v>
       </c>
       <c r="R113">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -4778,34 +4778,34 @@
         <v>130</v>
       </c>
       <c r="B114">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C114">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D114">
-        <v>62.18890996482098</v>
+        <v>69.52891690888762</v>
       </c>
       <c r="E114">
-        <v>62.32952573891958</v>
+        <v>69.85363337079892</v>
       </c>
       <c r="F114">
-        <v>62.29697116662678</v>
+        <v>69.77453315159934</v>
       </c>
       <c r="G114">
-        <v>62.29697116662678</v>
+        <v>69.77453315159934</v>
       </c>
       <c r="H114">
-        <v>62.58850993477542</v>
+        <v>70.02825475188449</v>
       </c>
       <c r="I114">
-        <v>62.35964240686933</v>
+        <v>69.81973764612101</v>
       </c>
       <c r="P114" t="s">
         <v>139</v>
       </c>
       <c r="Q114">
-        <v>0.7396424068693292</v>
+        <v>0.8597376461210189</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4813,22 +4813,22 @@
         <v>131</v>
       </c>
       <c r="F115">
-        <v>62.32952573891958</v>
+        <v>69.78364016899384</v>
       </c>
       <c r="J115">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K115">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L115">
-        <v>62.58850993477542</v>
+        <v>69.9426486529326</v>
       </c>
       <c r="M115">
-        <v>63.40912225700452</v>
+        <v>70.65231669294727</v>
       </c>
       <c r="N115">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O115">
         <v>72</v>
@@ -4837,10 +4837,10 @@
         <v>138</v>
       </c>
       <c r="Q115">
-        <v>1.196671436423053</v>
+        <v>0.9857514422915443</v>
       </c>
       <c r="R115">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -4848,34 +4848,34 @@
         <v>132</v>
       </c>
       <c r="B116">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C116">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D116">
-        <v>62.22243952569367</v>
+        <v>69.56232961115175</v>
       </c>
       <c r="E116">
-        <v>62.42604773802869</v>
+        <v>69.85033321388666</v>
       </c>
       <c r="F116">
-        <v>62.34368931067059</v>
+        <v>69.81593179999157</v>
       </c>
       <c r="G116">
-        <v>62.34368931067059</v>
+        <v>69.81593179999157</v>
       </c>
       <c r="H116">
-        <v>62.67310855272505</v>
+        <v>69.87721511791474</v>
       </c>
       <c r="I116">
-        <v>62.39967535351434</v>
+        <v>69.85941380051109</v>
       </c>
       <c r="P116" t="s">
         <v>139</v>
       </c>
       <c r="Q116">
-        <v>0.7796753535143424</v>
+        <v>0.8994138005110983</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -4883,22 +4883,22 @@
         <v>133</v>
       </c>
       <c r="F117">
-        <v>62.42604773802869</v>
+        <v>69.85363337079892</v>
       </c>
       <c r="J117">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K117">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L117">
-        <v>62.67310855272505</v>
+        <v>70.02825475188449</v>
       </c>
       <c r="M117">
-        <v>63.44262427019726</v>
+        <v>70.75272494461872</v>
       </c>
       <c r="N117">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O117">
         <v>72</v>
@@ -4907,10 +4907,10 @@
         <v>138</v>
       </c>
       <c r="Q117">
-        <v>1.100149437313945</v>
+        <v>0.9157582404864684</v>
       </c>
       <c r="R117">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -4918,34 +4918,34 @@
         <v>134</v>
       </c>
       <c r="B118">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C118">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D118">
-        <v>62.25593510330873</v>
+        <v>69.59572718378502</v>
       </c>
       <c r="E118">
-        <v>62.51765567730624</v>
+        <v>69.78364016899384</v>
       </c>
       <c r="F118">
-        <v>62.46847561993602</v>
+        <v>69.73410089892327</v>
       </c>
       <c r="G118">
-        <v>62.46847561993602</v>
+        <v>69.73410089892327</v>
       </c>
       <c r="H118">
-        <v>62.77001140601313</v>
+        <v>69.9426486529326</v>
       </c>
       <c r="I118">
-        <v>62.52321626895772</v>
+        <v>69.77871203792486</v>
       </c>
       <c r="P118" t="s">
         <v>139</v>
       </c>
       <c r="Q118">
-        <v>0.9032162689577206</v>
+        <v>0.8187120379248682</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -4953,22 +4953,22 @@
         <v>135</v>
       </c>
       <c r="F119">
-        <v>62.51765567730624</v>
+        <v>69.89780640782855</v>
       </c>
       <c r="J119">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K119">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L119">
-        <v>62.77001140601313</v>
+        <v>69.97031435103933</v>
       </c>
       <c r="M119">
-        <v>63.47616536065614</v>
+        <v>70.68581870614001</v>
       </c>
       <c r="N119">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O119">
         <v>72</v>
@@ -4977,10 +4977,10 @@
         <v>138</v>
       </c>
       <c r="Q119">
-        <v>1.008541498036394</v>
+        <v>0.8715852034568314</v>
       </c>
       <c r="R119">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -4988,22 +4988,22 @@
         <v>136</v>
       </c>
       <c r="F120">
-        <v>62.58913505280126</v>
+        <v>69.85033321388666</v>
       </c>
       <c r="J120">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="K120">
-        <v>44.78492978891902</v>
+        <v>28.56406677240783</v>
       </c>
       <c r="L120">
-        <v>62.80089693646821</v>
+        <v>69.87721511791474</v>
       </c>
       <c r="M120">
-        <v>63.50953050867597</v>
+        <v>70.61893675151855</v>
       </c>
       <c r="N120">
-        <v>63.52619717534263</v>
+        <v>70.76939161128539</v>
       </c>
       <c r="O120">
         <v>72</v>
@@ -5012,10 +5012,10 @@
         <v>138</v>
       </c>
       <c r="Q120">
-        <v>0.93706212254137</v>
+        <v>0.9190583973987287</v>
       </c>
       <c r="R120">
-        <v>61.87866792111605</v>
+        <v>69.21936840426964</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -5023,34 +5023,34 @@
         <v>137</v>
       </c>
       <c r="B121">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C121">
-        <v>61.62</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D121">
-        <v>62.28937409803899</v>
+        <v>69.62921124243516</v>
       </c>
       <c r="E121">
-        <v>62.58913505280126</v>
+        <v>69.89780640782855</v>
       </c>
       <c r="F121">
-        <v>62.5232210429199</v>
+        <v>69.81143575773334</v>
       </c>
       <c r="G121">
-        <v>62.5232210429199</v>
+        <v>69.81143575773334</v>
       </c>
       <c r="H121">
-        <v>62.80089693646821</v>
+        <v>69.97031435103933</v>
       </c>
       <c r="I121">
-        <v>62.59087817649608</v>
+        <v>69.86426830500626</v>
       </c>
       <c r="P121" t="s">
         <v>139</v>
       </c>
       <c r="Q121">
-        <v>0.970878176496079</v>
+        <v>0.9042683050062692</v>
       </c>
     </row>
   </sheetData>

--- a/output/single_track_results/1C-24H_container_throughput_40_batch_size_20.xlsx
+++ b/output/single_track_results/1C-24H_container_throughput_40_batch_size_20.xlsx
@@ -858,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.1705698887395</v>
+        <v>1.136739493068201</v>
       </c>
       <c r="M2">
-        <v>2.190202989621396</v>
+        <v>2.129227075191424</v>
       </c>
       <c r="N2">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O2">
         <v>24</v>
@@ -882,10 +882,10 @@
         <v>138</v>
       </c>
       <c r="Q2">
-        <v>1.791246998738752</v>
+        <v>1.672409385655948</v>
       </c>
       <c r="R2">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -902,25 +902,25 @@
         <v>0.953557172014398</v>
       </c>
       <c r="E3">
-        <v>1.185284734638833</v>
+        <v>1.25406469460403</v>
       </c>
       <c r="F3">
-        <v>1.093613228305576</v>
+        <v>1.196600473115744</v>
       </c>
       <c r="G3">
-        <v>1.093613228305576</v>
+        <v>1.196600473115744</v>
       </c>
       <c r="H3">
-        <v>1.445248746106032</v>
+        <v>1.425932439243021</v>
       </c>
       <c r="I3">
-        <v>1.170198664582343</v>
+        <v>1.243646055878997</v>
       </c>
       <c r="P3" t="s">
         <v>139</v>
       </c>
       <c r="Q3">
-        <v>0.2501986645823434</v>
+        <v>0.3236460558789968</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>1.185284734638833</v>
+        <v>1.211098969247763</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.445248746106032</v>
+        <v>1.454940291915717</v>
       </c>
       <c r="M4">
-        <v>2.35761853337257</v>
+        <v>2.263289603012074</v>
       </c>
       <c r="N4">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O4">
         <v>24</v>
@@ -952,10 +952,10 @@
         <v>138</v>
       </c>
       <c r="Q4">
-        <v>1.657454318470706</v>
+        <v>1.570664169431805</v>
       </c>
       <c r="R4">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -972,25 +972,25 @@
         <v>0.9870844329574503</v>
       </c>
       <c r="E5">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
       <c r="F5">
-        <v>1.021384958799162</v>
+        <v>1.064430720115119</v>
       </c>
       <c r="G5">
-        <v>1.021384958799162</v>
+        <v>1.064430720115119</v>
       </c>
       <c r="H5">
-        <v>1.1705698887395</v>
+        <v>1.136739493068201</v>
       </c>
       <c r="I5">
-        <v>1.089153140068414</v>
+        <v>1.132272049018673</v>
       </c>
       <c r="P5" t="s">
         <v>139</v>
       </c>
       <c r="Q5">
-        <v>0.1691531400684142</v>
+        <v>0.2122720490186726</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -998,7 +998,7 @@
         <v>22</v>
       </c>
       <c r="F6">
-        <v>1.142626172845992</v>
+        <v>1.25406469460403</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.370771074188631</v>
+        <v>1.425932439243021</v>
       </c>
       <c r="M6">
-        <v>2.257108557605029</v>
+        <v>2.22971748206756</v>
       </c>
       <c r="N6">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O6">
         <v>24</v>
@@ -1022,10 +1022,10 @@
         <v>138</v>
       </c>
       <c r="Q6">
-        <v>1.700112880263548</v>
+        <v>1.527698444075538</v>
       </c>
       <c r="R6">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1042,25 +1042,25 @@
         <v>1.020460955040731</v>
       </c>
       <c r="E7">
-        <v>1.142626172845992</v>
+        <v>1.309369514928495</v>
       </c>
       <c r="F7">
-        <v>1.105292690570489</v>
+        <v>1.245600235165743</v>
       </c>
       <c r="G7">
-        <v>1.105292690570489</v>
+        <v>1.245600235165743</v>
       </c>
       <c r="H7">
-        <v>1.370771074188631</v>
+        <v>1.547957119733577</v>
       </c>
       <c r="I7">
-        <v>1.168808703791202</v>
+        <v>1.32305683945326</v>
       </c>
       <c r="P7" t="s">
         <v>139</v>
       </c>
       <c r="Q7">
-        <v>0.2488087037912016</v>
+        <v>0.4030568394532602</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1068,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="F8">
-        <v>1.196688283914305</v>
+        <v>1.306654211377028</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.361244499974795</v>
+        <v>1.367880899620646</v>
       </c>
       <c r="M8">
-        <v>2.223711629331749</v>
+        <v>2.162735714901777</v>
       </c>
       <c r="N8">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O8">
         <v>24</v>
@@ -1092,10 +1092,10 @@
         <v>138</v>
       </c>
       <c r="Q8">
-        <v>1.646050769195235</v>
+        <v>1.47510892730254</v>
       </c>
       <c r="R8">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1112,25 +1112,25 @@
         <v>1.053887786858818</v>
       </c>
       <c r="E9">
-        <v>1.286447814818566</v>
+        <v>1.306654211377028</v>
       </c>
       <c r="F9">
-        <v>1.240852336962172</v>
+        <v>1.215496271838591</v>
       </c>
       <c r="G9">
-        <v>1.240852336962172</v>
+        <v>1.215496271838591</v>
       </c>
       <c r="H9">
-        <v>1.435926815144343</v>
+        <v>1.367880899620646</v>
       </c>
       <c r="I9">
-        <v>1.303520414898661</v>
+        <v>1.292476139010072</v>
       </c>
       <c r="P9" t="s">
         <v>139</v>
       </c>
       <c r="Q9">
-        <v>0.383520414898661</v>
+        <v>0.3724761390100718</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1138,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="F10">
-        <v>1.278383838754683</v>
+        <v>1.309369514928495</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.372304539892774</v>
+        <v>1.547957119733577</v>
       </c>
       <c r="M10">
-        <v>2.290693396497531</v>
+        <v>2.363561225168339</v>
       </c>
       <c r="N10">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O10">
         <v>24</v>
@@ -1162,10 +1162,10 @@
         <v>138</v>
       </c>
       <c r="Q10">
-        <v>1.564355214354856</v>
+        <v>1.472393623751074</v>
       </c>
       <c r="R10">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1179,28 +1179,28 @@
         <v>0.92</v>
       </c>
       <c r="D11">
-        <v>1.087423823466233</v>
+        <v>1.087247985852383</v>
       </c>
       <c r="E11">
-        <v>1.196688283914305</v>
+        <v>1.211098969247763</v>
       </c>
       <c r="F11">
-        <v>1.14223666667356</v>
+        <v>1.158064004149008</v>
       </c>
       <c r="G11">
-        <v>1.14223666667356</v>
+        <v>1.158064004149008</v>
       </c>
       <c r="H11">
-        <v>1.361244499974795</v>
+        <v>1.454940291915717</v>
       </c>
       <c r="I11">
-        <v>1.190834848843453</v>
+        <v>1.209509024764034</v>
       </c>
       <c r="P11" t="s">
         <v>139</v>
       </c>
       <c r="Q11">
-        <v>0.2708348488434525</v>
+        <v>0.2895090247640341</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1214,28 +1214,28 @@
         <v>0.92</v>
       </c>
       <c r="D12">
-        <v>1.121027466734005</v>
+        <v>1.120730271433342</v>
       </c>
       <c r="E12">
-        <v>1.278383838754683</v>
+        <v>1.433548739803474</v>
       </c>
       <c r="F12">
-        <v>1.199839423763896</v>
+        <v>1.380353019019306</v>
       </c>
       <c r="G12">
-        <v>1.199839423763896</v>
+        <v>1.380353019019306</v>
       </c>
       <c r="H12">
-        <v>1.372304539892774</v>
+        <v>1.472669672619878</v>
       </c>
       <c r="I12">
-        <v>1.243640158738117</v>
+        <v>1.428254160837252</v>
       </c>
       <c r="P12" t="s">
         <v>139</v>
       </c>
       <c r="Q12">
-        <v>0.3236401587381171</v>
+        <v>0.5082541608372516</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1243,7 +1243,7 @@
         <v>29</v>
       </c>
       <c r="F13">
-        <v>1.286447814818566</v>
+        <v>1.341156448984569</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.435926815144343</v>
+        <v>1.412895658344074</v>
       </c>
       <c r="M13">
-        <v>2.324265517442046</v>
+        <v>2.196132643175058</v>
       </c>
       <c r="N13">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O13">
         <v>24</v>
@@ -1267,10 +1267,10 @@
         <v>138</v>
       </c>
       <c r="Q13">
-        <v>1.556291238290974</v>
+        <v>1.440606689694999</v>
       </c>
       <c r="R13">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1284,28 +1284,28 @@
         <v>0.92</v>
       </c>
       <c r="D14">
-        <v>1.154373529062798</v>
+        <v>1.154216949386474</v>
       </c>
       <c r="E14">
-        <v>1.46864437927165</v>
+        <v>1.340150325047504</v>
       </c>
       <c r="F14">
-        <v>1.409056753225864</v>
+        <v>1.281989984555553</v>
       </c>
       <c r="G14">
-        <v>1.409056753225864</v>
+        <v>1.281989984555553</v>
       </c>
       <c r="H14">
-        <v>1.71622164541076</v>
+        <v>1.574210327972903</v>
       </c>
       <c r="I14">
-        <v>1.45586502791921</v>
+        <v>1.326350046457841</v>
       </c>
       <c r="P14" t="s">
         <v>139</v>
       </c>
       <c r="Q14">
-        <v>0.5358650279192104</v>
+        <v>0.4063500464578415</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1313,7 +1313,7 @@
         <v>31</v>
       </c>
       <c r="F15">
-        <v>1.324211700081583</v>
+        <v>1.340150325047504</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1322,13 +1322,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.544700829531953</v>
+        <v>1.574210327972903</v>
       </c>
       <c r="M15">
-        <v>2.491300069780559</v>
+        <v>2.430324155350588</v>
       </c>
       <c r="N15">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O15">
         <v>24</v>
@@ -1337,10 +1337,10 @@
         <v>138</v>
       </c>
       <c r="Q15">
-        <v>1.518527353027956</v>
+        <v>1.441612813632064</v>
       </c>
       <c r="R15">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1354,28 +1354,28 @@
         <v>0.92</v>
       </c>
       <c r="D16">
-        <v>1.187784077285885</v>
+        <v>1.187789645747672</v>
       </c>
       <c r="E16">
-        <v>1.324211700081583</v>
+        <v>1.341156448984569</v>
       </c>
       <c r="F16">
-        <v>1.267871590622962</v>
+        <v>1.255703533447008</v>
       </c>
       <c r="G16">
-        <v>1.267871590622962</v>
+        <v>1.255703533447008</v>
       </c>
       <c r="H16">
-        <v>1.544700829531953</v>
+        <v>1.412895658344074</v>
       </c>
       <c r="I16">
-        <v>1.316314734735322</v>
+        <v>1.318368860313264</v>
       </c>
       <c r="P16" t="s">
         <v>139</v>
       </c>
       <c r="Q16">
-        <v>0.3963147347353223</v>
+        <v>0.3983688603132641</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1383,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="F17">
-        <v>1.349155642293647</v>
+        <v>1.406074947676619</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.522962038856507</v>
+        <v>1.521260802355621</v>
       </c>
       <c r="M17">
-        <v>2.457929983155913</v>
+        <v>2.330042064674368</v>
       </c>
       <c r="N17">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O17">
         <v>24</v>
@@ -1407,10 +1407,10 @@
         <v>138</v>
       </c>
       <c r="Q17">
-        <v>1.493583410815892</v>
+        <v>1.375688191002949</v>
       </c>
       <c r="R17">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1424,28 +1424,28 @@
         <v>0.92</v>
       </c>
       <c r="D18">
-        <v>1.221175607016654</v>
+        <v>1.22120336462645</v>
       </c>
       <c r="E18">
-        <v>1.410004677643649</v>
+        <v>1.421476403902551</v>
       </c>
       <c r="F18">
-        <v>1.342366535956146</v>
+        <v>1.369980238428637</v>
       </c>
       <c r="G18">
-        <v>1.342366535956146</v>
+        <v>1.369980238428637</v>
       </c>
       <c r="H18">
-        <v>1.46367498418542</v>
+        <v>1.55901011756696</v>
       </c>
       <c r="I18">
-        <v>1.392837150277857</v>
+        <v>1.424760867456486</v>
       </c>
       <c r="P18" t="s">
         <v>139</v>
       </c>
       <c r="Q18">
-        <v>0.4728371502778571</v>
+        <v>0.5047608674564862</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1453,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <v>1.410004677643649</v>
+        <v>1.421476403902551</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.46367498418542</v>
+        <v>1.55901011756696</v>
       </c>
       <c r="M19">
-        <v>2.42453713959831</v>
+        <v>2.396954068725942</v>
       </c>
       <c r="N19">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O19">
         <v>24</v>
@@ -1477,10 +1477,10 @@
         <v>138</v>
       </c>
       <c r="Q19">
-        <v>1.43273437546589</v>
+        <v>1.360286734777017</v>
       </c>
       <c r="R19">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>1.426753641722617</v>
+        <v>1.433548739803474</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.451158482556676</v>
+        <v>1.472669672619878</v>
       </c>
       <c r="M20">
-        <v>2.391017979104339</v>
+        <v>2.296642618942599</v>
       </c>
       <c r="N20">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O20">
         <v>24</v>
@@ -1512,10 +1512,10 @@
         <v>138</v>
       </c>
       <c r="Q20">
-        <v>1.415985411386923</v>
+        <v>1.348214398876094</v>
       </c>
       <c r="R20">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1529,28 +1529,28 @@
         <v>0.92</v>
       </c>
       <c r="D21">
-        <v>1.254711475571641</v>
+        <v>1.25459489435722</v>
       </c>
       <c r="E21">
-        <v>1.349155642293647</v>
+        <v>1.406074947676619</v>
       </c>
       <c r="F21">
-        <v>1.277120719867168</v>
+        <v>1.340779022504286</v>
       </c>
       <c r="G21">
-        <v>1.277120719867168</v>
+        <v>1.340779022504286</v>
       </c>
       <c r="H21">
-        <v>1.522962038856507</v>
+        <v>1.521260802355621</v>
       </c>
       <c r="I21">
-        <v>1.351796705075299</v>
+        <v>1.406638699518699</v>
       </c>
       <c r="P21" t="s">
         <v>139</v>
       </c>
       <c r="Q21">
-        <v>0.4317967050752994</v>
+        <v>0.4866386995186994</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1564,28 +1564,28 @@
         <v>0.92</v>
       </c>
       <c r="D22">
-        <v>1.288199517167134</v>
+        <v>1.288130762912206</v>
       </c>
       <c r="E22">
-        <v>1.610391453056143</v>
+        <v>1.574946672506266</v>
       </c>
       <c r="F22">
-        <v>1.530314326924523</v>
+        <v>1.526307644478265</v>
       </c>
       <c r="G22">
-        <v>1.530314326924523</v>
+        <v>1.526307644478265</v>
       </c>
       <c r="H22">
-        <v>1.851539888811725</v>
+        <v>1.723615227146815</v>
       </c>
       <c r="I22">
-        <v>1.579987621851456</v>
+        <v>1.595515827442139</v>
       </c>
       <c r="P22" t="s">
         <v>139</v>
       </c>
       <c r="Q22">
-        <v>0.6599876218514563</v>
+        <v>0.675515827442139</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1593,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>1.46864437927165</v>
+        <v>1.486390305828087</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.71622164541076</v>
+        <v>1.627150064507438</v>
       </c>
       <c r="M23">
-        <v>2.591849855436175</v>
+        <v>2.497409310165561</v>
       </c>
       <c r="N23">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O23">
         <v>24</v>
@@ -1617,10 +1617,10 @@
         <v>138</v>
       </c>
       <c r="Q23">
-        <v>1.374094673837889</v>
+        <v>1.295372832851482</v>
       </c>
       <c r="R23">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>1.499254071149941</v>
+        <v>1.4895484120257</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.622957871435212</v>
+        <v>1.594453508158895</v>
       </c>
       <c r="M24">
-        <v>2.52489326818072</v>
+        <v>2.463917353750749</v>
       </c>
       <c r="N24">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O24">
         <v>24</v>
@@ -1652,10 +1652,10 @@
         <v>138</v>
       </c>
       <c r="Q24">
-        <v>1.343484981959598</v>
+        <v>1.292214726653868</v>
       </c>
       <c r="R24">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1669,28 +1669,28 @@
         <v>0.92</v>
       </c>
       <c r="D25">
-        <v>1.321776285952265</v>
+        <v>1.321679651776525</v>
       </c>
       <c r="E25">
-        <v>1.426753641722617</v>
+        <v>1.486390305828087</v>
       </c>
       <c r="F25">
-        <v>1.349708178879641</v>
+        <v>1.436782776625865</v>
       </c>
       <c r="G25">
-        <v>1.349708178879641</v>
+        <v>1.436782776625865</v>
       </c>
       <c r="H25">
-        <v>1.451158482556676</v>
+        <v>1.627150064507438</v>
       </c>
       <c r="I25">
-        <v>1.401301055138783</v>
+        <v>1.500101931854733</v>
       </c>
       <c r="P25" t="s">
         <v>139</v>
       </c>
       <c r="Q25">
-        <v>0.4813010551387825</v>
+        <v>0.580101931854733</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1704,28 +1704,28 @@
         <v>0.92</v>
       </c>
       <c r="D26">
-        <v>1.355291685581514</v>
+        <v>1.355071591455299</v>
       </c>
       <c r="E26">
-        <v>1.499254071149941</v>
+        <v>1.4895484120257</v>
       </c>
       <c r="F26">
-        <v>1.43352883153606</v>
+        <v>1.451036788417288</v>
       </c>
       <c r="G26">
-        <v>1.43352883153606</v>
+        <v>1.451036788417288</v>
       </c>
       <c r="H26">
-        <v>1.622957871435212</v>
+        <v>1.594453508158895</v>
       </c>
       <c r="I26">
-        <v>1.503696005115118</v>
+        <v>1.507182499095507</v>
       </c>
       <c r="P26" t="s">
         <v>139</v>
       </c>
       <c r="Q26">
-        <v>0.5836960051151184</v>
+        <v>0.5871824990955071</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1733,7 +1733,7 @@
         <v>43</v>
       </c>
       <c r="F27">
-        <v>1.570920229854969</v>
+        <v>1.574946672506266</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1.663411919412503</v>
+        <v>1.723615227146815</v>
       </c>
       <c r="M27">
-        <v>2.558385224595533</v>
+        <v>2.564425224179618</v>
       </c>
       <c r="N27">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O27">
         <v>24</v>
@@ -1757,10 +1757,10 @@
         <v>138</v>
       </c>
       <c r="Q27">
-        <v>1.27181882325457</v>
+        <v>1.206816466173302</v>
       </c>
       <c r="R27">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1774,28 +1774,28 @@
         <v>0.92</v>
       </c>
       <c r="D28">
-        <v>1.388787403912131</v>
+        <v>1.388532383636573</v>
       </c>
       <c r="E28">
-        <v>1.650255822289221</v>
+        <v>1.616152878998588</v>
       </c>
       <c r="F28">
-        <v>1.598914913332817</v>
+        <v>1.527238977449932</v>
       </c>
       <c r="G28">
-        <v>1.598914913332817</v>
+        <v>1.527238977449932</v>
       </c>
       <c r="H28">
-        <v>1.852594935395448</v>
+        <v>1.686547655905476</v>
       </c>
       <c r="I28">
-        <v>1.673652645307946</v>
+        <v>1.597221621111544</v>
       </c>
       <c r="P28" t="s">
         <v>139</v>
       </c>
       <c r="Q28">
-        <v>0.7536526453079461</v>
+        <v>0.6772216211115442</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1803,7 +1803,7 @@
         <v>45</v>
       </c>
       <c r="F29">
-        <v>1.610391453056143</v>
+        <v>1.616152878998588</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1.851539888811725</v>
+        <v>1.686547655905476</v>
       </c>
       <c r="M29">
-        <v>2.725705260200244</v>
+        <v>2.530873941006204</v>
       </c>
       <c r="N29">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O29">
         <v>24</v>
@@ -1827,10 +1827,10 @@
         <v>138</v>
       </c>
       <c r="Q29">
-        <v>1.232347600053396</v>
+        <v>1.16561025968098</v>
       </c>
       <c r="R29">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1838,7 +1838,7 @@
         <v>46</v>
       </c>
       <c r="F30">
-        <v>1.643091762410827</v>
+        <v>1.63139086746682</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1.769088260593374</v>
+        <v>1.894906070045947</v>
       </c>
       <c r="M30">
-        <v>2.658958776664524</v>
+        <v>2.698182415543164</v>
       </c>
       <c r="N30">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O30">
         <v>24</v>
@@ -1862,10 +1862,10 @@
         <v>138</v>
       </c>
       <c r="Q30">
-        <v>1.199647290698712</v>
+        <v>1.150372271212748</v>
       </c>
       <c r="R30">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1879,28 +1879,28 @@
         <v>0.92</v>
       </c>
       <c r="D31">
-        <v>1.422133825127527</v>
+        <v>1.422142810749488</v>
       </c>
       <c r="E31">
-        <v>1.643091762410827</v>
+        <v>1.648712722366722</v>
       </c>
       <c r="F31">
-        <v>1.562386944431112</v>
+        <v>1.605021506789939</v>
       </c>
       <c r="G31">
-        <v>1.562386944431112</v>
+        <v>1.605021506789939</v>
       </c>
       <c r="H31">
-        <v>1.769088260593374</v>
+        <v>1.824620644996752</v>
       </c>
       <c r="I31">
-        <v>1.612280480205478</v>
+        <v>1.679606485091181</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
       </c>
       <c r="Q31">
-        <v>0.6922804802054777</v>
+        <v>0.7596064850911809</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -1914,28 +1914,28 @@
         <v>0.92</v>
       </c>
       <c r="D32">
-        <v>1.455573163818223</v>
+        <v>1.455650434649961</v>
       </c>
       <c r="E32">
-        <v>1.686152226596946</v>
+        <v>1.63139086746682</v>
       </c>
       <c r="F32">
-        <v>1.610106561696569</v>
+        <v>1.594961511604688</v>
       </c>
       <c r="G32">
-        <v>1.610106561696569</v>
+        <v>1.594961511604688</v>
       </c>
       <c r="H32">
-        <v>1.721759035392921</v>
+        <v>1.894906070045947</v>
       </c>
       <c r="I32">
-        <v>1.652099735849079</v>
+        <v>1.668777892506347</v>
       </c>
       <c r="P32" t="s">
         <v>139</v>
       </c>
       <c r="Q32">
-        <v>0.7320997358490789</v>
+        <v>0.7487778925063467</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -1943,7 +1943,7 @@
         <v>49</v>
       </c>
       <c r="F33">
-        <v>1.650255822289221</v>
+        <v>1.648712722366722</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1.852594935395448</v>
+        <v>1.824620644996752</v>
       </c>
       <c r="M33">
-        <v>2.759158329973135</v>
+        <v>2.597982862234553</v>
       </c>
       <c r="N33">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O33">
         <v>24</v>
@@ -1967,10 +1967,10 @@
         <v>138</v>
       </c>
       <c r="Q33">
-        <v>1.192483230820319</v>
+        <v>1.133050416312846</v>
       </c>
       <c r="R33">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -1984,28 +1984,28 @@
         <v>0.92</v>
       </c>
       <c r="D34">
-        <v>1.488980615259877</v>
+        <v>1.489183968488673</v>
       </c>
       <c r="E34">
-        <v>1.570920229854969</v>
+        <v>1.840884678815105</v>
       </c>
       <c r="F34">
-        <v>1.510037137274446</v>
+        <v>1.750102678164525</v>
       </c>
       <c r="G34">
-        <v>1.510037137274446</v>
+        <v>1.750102678164525</v>
       </c>
       <c r="H34">
-        <v>1.663411919412503</v>
+        <v>1.999225271559527</v>
       </c>
       <c r="I34">
-        <v>1.553580709840354</v>
+        <v>1.808044917490299</v>
       </c>
       <c r="P34" t="s">
         <v>139</v>
       </c>
       <c r="Q34">
-        <v>0.633580709840354</v>
+        <v>0.8880449174902988</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2013,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="F35">
-        <v>1.686152226596946</v>
+        <v>1.678785373993986</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1.721759035392921</v>
+        <v>1.866540407682113</v>
       </c>
       <c r="M35">
-        <v>2.625401138609589</v>
+        <v>2.664729345770273</v>
       </c>
       <c r="N35">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O35">
         <v>24</v>
@@ -2037,10 +2037,10 @@
         <v>138</v>
       </c>
       <c r="Q35">
-        <v>1.156586826512594</v>
+        <v>1.102977764685583</v>
       </c>
       <c r="R35">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2054,28 +2054,28 @@
         <v>0.92</v>
       </c>
       <c r="D36">
-        <v>1.522439982956079</v>
+        <v>1.522548288536894</v>
       </c>
       <c r="E36">
-        <v>1.780236193562232</v>
+        <v>1.707045022114368</v>
       </c>
       <c r="F36">
-        <v>1.762445402140618</v>
+        <v>1.679273278824162</v>
       </c>
       <c r="G36">
-        <v>1.762445402140618</v>
+        <v>1.679273278824162</v>
       </c>
       <c r="H36">
-        <v>2.009621570911396</v>
+        <v>1.969264129884576</v>
       </c>
       <c r="I36">
-        <v>1.806652421082946</v>
+        <v>1.725356253222797</v>
       </c>
       <c r="P36" t="s">
         <v>139</v>
       </c>
       <c r="Q36">
-        <v>0.886652421082946</v>
+        <v>0.805356253222797</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2083,7 +2083,7 @@
         <v>53</v>
       </c>
       <c r="F37">
-        <v>1.718236798086096</v>
+        <v>1.707045022114368</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1.773394884005122</v>
+        <v>1.969264129884576</v>
       </c>
       <c r="M37">
-        <v>2.692345001640736</v>
+        <v>2.731633409605113</v>
       </c>
       <c r="N37">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O37">
         <v>24</v>
@@ -2107,10 +2107,10 @@
         <v>138</v>
       </c>
       <c r="Q37">
-        <v>1.124502255023443</v>
+        <v>1.0747181165652</v>
       </c>
       <c r="R37">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2124,28 +2124,28 @@
         <v>0.92</v>
       </c>
       <c r="D38">
-        <v>1.556026824022564</v>
+        <v>1.556124914353665</v>
       </c>
       <c r="E38">
-        <v>1.718236798086096</v>
+        <v>1.678785373993986</v>
       </c>
       <c r="F38">
-        <v>1.662124756932319</v>
+        <v>1.648330112156376</v>
       </c>
       <c r="G38">
-        <v>1.662124756932319</v>
+        <v>1.648330112156376</v>
       </c>
       <c r="H38">
-        <v>1.773394884005122</v>
+        <v>1.866540407682113</v>
       </c>
       <c r="I38">
-        <v>1.717628766618772</v>
+        <v>1.715449793288019</v>
       </c>
       <c r="P38" t="s">
         <v>139</v>
       </c>
       <c r="Q38">
-        <v>0.7976287666187721</v>
+        <v>0.7954497932880195</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2153,7 +2153,7 @@
         <v>55</v>
       </c>
       <c r="F39">
-        <v>1.780236193562232</v>
+        <v>1.840884678815105</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>2.009621570911396</v>
+        <v>1.999225271559527</v>
       </c>
       <c r="M39">
-        <v>2.792609324035085</v>
+        <v>2.765096472012901</v>
       </c>
       <c r="N39">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O39">
         <v>24</v>
@@ -2177,10 +2177,10 @@
         <v>138</v>
       </c>
       <c r="Q39">
-        <v>1.062502859547308</v>
+        <v>0.9408784598644633</v>
       </c>
       <c r="R39">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2194,28 +2194,28 @@
         <v>0.92</v>
       </c>
       <c r="D40">
-        <v>1.589509984864264</v>
+        <v>1.589500703039374</v>
       </c>
       <c r="E40">
-        <v>1.938899046560676</v>
+        <v>1.814197169023089</v>
       </c>
       <c r="F40">
-        <v>1.858333313763589</v>
+        <v>1.762462913892873</v>
       </c>
       <c r="G40">
-        <v>1.858333313763589</v>
+        <v>1.762462913892873</v>
       </c>
       <c r="H40">
-        <v>2.10325774111004</v>
+        <v>1.852694791192268</v>
       </c>
       <c r="I40">
-        <v>1.906565154631065</v>
+        <v>1.827195591488601</v>
       </c>
       <c r="P40" t="s">
         <v>139</v>
       </c>
       <c r="Q40">
-        <v>0.9865651546310646</v>
+        <v>0.9071955914886006</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2223,7 +2223,7 @@
         <v>57</v>
       </c>
       <c r="F41">
-        <v>1.938899046560676</v>
+        <v>1.814197169023089</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>2.10325774111004</v>
+        <v>1.852694791192268</v>
       </c>
       <c r="M41">
-        <v>2.826072386442873</v>
+        <v>2.631369087210765</v>
       </c>
       <c r="N41">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="O41">
         <v>24</v>
@@ -2247,10 +2247,10 @@
         <v>138</v>
       </c>
       <c r="Q41">
-        <v>0.903840006548863</v>
+        <v>0.9675659696564787</v>
       </c>
       <c r="R41">
-        <v>1.051492054370788</v>
+        <v>1.10935375302362</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2258,22 +2258,22 @@
         <v>58</v>
       </c>
       <c r="F42">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
       <c r="J42">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K42">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L42">
-        <v>26.82810769979675</v>
+        <v>26.88255809340351</v>
       </c>
       <c r="M42">
-        <v>27.91145120058936</v>
+        <v>27.66877775864256</v>
       </c>
       <c r="N42">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O42">
         <v>48</v>
@@ -2282,10 +2282,10 @@
         <v>138</v>
       </c>
       <c r="Q42">
-        <v>1.909106377045724</v>
+        <v>1.568906384741009</v>
       </c>
       <c r="R42">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2302,25 +2302,25 @@
         <v>26.52360249896035</v>
       </c>
       <c r="E43">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
       <c r="F43">
-        <v>26.63687330612849</v>
+        <v>26.63611613201569</v>
       </c>
       <c r="G43">
-        <v>26.63687330612849</v>
+        <v>26.63611613201569</v>
       </c>
       <c r="H43">
-        <v>26.82810769979675</v>
+        <v>26.88255809340351</v>
       </c>
       <c r="I43">
-        <v>26.70832949502076</v>
+        <v>26.70672601046099</v>
       </c>
       <c r="P43" t="s">
         <v>139</v>
       </c>
       <c r="Q43">
-        <v>0.2183294950207575</v>
+        <v>0.2167260104609952</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2328,22 +2328,22 @@
         <v>60</v>
       </c>
       <c r="F44">
-        <v>26.71557849874847</v>
+        <v>26.75288763731378</v>
       </c>
       <c r="J44">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K44">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L44">
-        <v>26.95885064898955</v>
+        <v>26.8446036554775</v>
       </c>
       <c r="M44">
-        <v>28.0115746421756</v>
+        <v>27.63543785185514</v>
       </c>
       <c r="N44">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O44">
         <v>48</v>
@@ -2352,10 +2352,10 @@
         <v>138</v>
       </c>
       <c r="Q44">
-        <v>1.848488273659367</v>
+        <v>1.501769232057779</v>
       </c>
       <c r="R44">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2372,25 +2372,25 @@
         <v>26.55719315645564</v>
       </c>
       <c r="E45">
-        <v>26.71557849874847</v>
+        <v>26.75288763731378</v>
       </c>
       <c r="F45">
-        <v>26.6522573046071</v>
+        <v>26.67629485302313</v>
       </c>
       <c r="G45">
-        <v>26.6522573046071</v>
+        <v>26.67629485302313</v>
       </c>
       <c r="H45">
-        <v>26.95885064898955</v>
+        <v>26.8446036554775</v>
       </c>
       <c r="I45">
-        <v>26.72256068595315</v>
+        <v>26.72363694000484</v>
       </c>
       <c r="P45" t="s">
         <v>139</v>
       </c>
       <c r="Q45">
-        <v>0.2325606859531533</v>
+        <v>0.2336369400048461</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -2398,22 +2398,22 @@
         <v>62</v>
       </c>
       <c r="F46">
-        <v>26.77758967119487</v>
+        <v>26.70466496809067</v>
       </c>
       <c r="J46">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K46">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L46">
-        <v>26.95031517983605</v>
+        <v>26.83204913631315</v>
       </c>
       <c r="M46">
-        <v>27.97818766167884</v>
+        <v>27.60204129755309</v>
       </c>
       <c r="N46">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O46">
         <v>48</v>
@@ -2422,10 +2422,10 @@
         <v>138</v>
       </c>
       <c r="Q46">
-        <v>1.786477101212959</v>
+        <v>1.549991901280887</v>
       </c>
       <c r="R46">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -2442,25 +2442,25 @@
         <v>26.59057268731969</v>
       </c>
       <c r="E47">
-        <v>26.77786710707975</v>
+        <v>26.76792783075881</v>
       </c>
       <c r="F47">
-        <v>26.76424342599579</v>
+        <v>26.73444011732802</v>
       </c>
       <c r="G47">
-        <v>26.76424342599579</v>
+        <v>26.73444011732802</v>
       </c>
       <c r="H47">
-        <v>27.04169674094734</v>
+        <v>26.89105588212668</v>
       </c>
       <c r="I47">
-        <v>26.80617555090129</v>
+        <v>26.78308439125192</v>
       </c>
       <c r="P47" t="s">
         <v>139</v>
       </c>
       <c r="Q47">
-        <v>0.316175550901292</v>
+        <v>0.2930843912519201</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2468,22 +2468,22 @@
         <v>64</v>
       </c>
       <c r="F48">
-        <v>26.77786710707975</v>
+        <v>26.76792783075881</v>
       </c>
       <c r="J48">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K48">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L48">
-        <v>27.04169674094734</v>
+        <v>26.89105588212668</v>
       </c>
       <c r="M48">
-        <v>28.04499915938426</v>
+        <v>27.70216473913932</v>
       </c>
       <c r="N48">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O48">
         <v>48</v>
@@ -2492,10 +2492,10 @@
         <v>138</v>
       </c>
       <c r="Q48">
-        <v>1.78619966532808</v>
+        <v>1.486729038612751</v>
       </c>
       <c r="R48">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2512,25 +2512,25 @@
         <v>26.6239653949028</v>
       </c>
       <c r="E49">
-        <v>26.77758967119487</v>
+        <v>26.889035160709</v>
       </c>
       <c r="F49">
-        <v>26.69823898866958</v>
+        <v>26.81460401062369</v>
       </c>
       <c r="G49">
-        <v>26.69823898866958</v>
+        <v>26.81460401062369</v>
       </c>
       <c r="H49">
-        <v>26.95031517983605</v>
+        <v>27.08538577407999</v>
       </c>
       <c r="I49">
-        <v>26.75666101874241</v>
+        <v>26.88432740662407</v>
       </c>
       <c r="P49" t="s">
         <v>139</v>
       </c>
       <c r="Q49">
-        <v>0.2666610187424112</v>
+        <v>0.3943274066240718</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -2538,22 +2538,22 @@
         <v>66</v>
       </c>
       <c r="F50">
-        <v>26.80987049458729</v>
+        <v>26.85629158393568</v>
       </c>
       <c r="J50">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K50">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L50">
-        <v>26.90179141797507</v>
+        <v>27.00630526015802</v>
       </c>
       <c r="M50">
-        <v>27.94484775489142</v>
+        <v>27.73558925634799</v>
       </c>
       <c r="N50">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O50">
         <v>48</v>
@@ -2562,10 +2562,10 @@
         <v>138</v>
       </c>
       <c r="Q50">
-        <v>1.754196277820544</v>
+        <v>1.398365285435879</v>
       </c>
       <c r="R50">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -2582,25 +2582,25 @@
         <v>26.65731501584724</v>
       </c>
       <c r="E51">
-        <v>26.93079912113999</v>
+        <v>26.70466496809067</v>
       </c>
       <c r="F51">
-        <v>26.87660590535738</v>
+        <v>26.67910552015726</v>
       </c>
       <c r="G51">
-        <v>26.87660590535738</v>
+        <v>26.67910552015726</v>
       </c>
       <c r="H51">
-        <v>27.13992910055934</v>
+        <v>26.83204913631315</v>
       </c>
       <c r="I51">
-        <v>26.92896152591979</v>
+        <v>26.75436830839322</v>
       </c>
       <c r="P51" t="s">
         <v>139</v>
       </c>
       <c r="Q51">
-        <v>0.4389615259197868</v>
+        <v>0.2643683083932196</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -2614,28 +2614,28 @@
         <v>26.49</v>
       </c>
       <c r="D52">
-        <v>26.69091427074748</v>
+        <v>26.69077474039372</v>
       </c>
       <c r="E52">
-        <v>26.80987049458729</v>
+        <v>26.84207142862984</v>
       </c>
       <c r="F52">
-        <v>26.78964098714483</v>
+        <v>26.79017897364485</v>
       </c>
       <c r="G52">
-        <v>26.78964098714483</v>
+        <v>26.79017897364485</v>
       </c>
       <c r="H52">
-        <v>26.90179141797507</v>
+        <v>27.07392564852644</v>
       </c>
       <c r="I52">
-        <v>26.83952174168645</v>
+        <v>26.84612825649153</v>
       </c>
       <c r="P52" t="s">
         <v>139</v>
       </c>
       <c r="Q52">
-        <v>0.3495217416864485</v>
+        <v>0.3561282564915267</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2643,22 +2643,22 @@
         <v>69</v>
       </c>
       <c r="F53">
-        <v>26.93079912113999</v>
+        <v>26.84207142862984</v>
       </c>
       <c r="J53">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K53">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L53">
-        <v>27.13992910055934</v>
+        <v>27.07392564852644</v>
       </c>
       <c r="M53">
-        <v>28.11217450439706</v>
+        <v>27.76916268772077</v>
       </c>
       <c r="N53">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O53">
         <v>48</v>
@@ -2667,10 +2667,10 @@
         <v>138</v>
       </c>
       <c r="Q53">
-        <v>1.63326765126784</v>
+        <v>1.412585440741722</v>
       </c>
       <c r="R53">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -2684,28 +2684,28 @@
         <v>26.49</v>
       </c>
       <c r="D54">
-        <v>26.72429060319894</v>
+        <v>26.72426895714117</v>
       </c>
       <c r="E54">
-        <v>26.9103634317633</v>
+        <v>26.85629158393568</v>
       </c>
       <c r="F54">
-        <v>26.89468326249176</v>
+        <v>26.76545266277937</v>
       </c>
       <c r="G54">
-        <v>26.89468326249176</v>
+        <v>26.76545266277937</v>
       </c>
       <c r="H54">
-        <v>27.08939741367954</v>
+        <v>27.00630526015802</v>
       </c>
       <c r="I54">
-        <v>26.95609735157707</v>
+        <v>26.81195880194401</v>
       </c>
       <c r="P54" t="s">
         <v>139</v>
       </c>
       <c r="Q54">
-        <v>0.4660973515770763</v>
+        <v>0.3219588019440067</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -2713,22 +2713,22 @@
         <v>71</v>
       </c>
       <c r="F55">
-        <v>26.9103634317633</v>
+        <v>26.889035160709</v>
       </c>
       <c r="J55">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K55">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L55">
-        <v>27.08939741367954</v>
+        <v>27.08538577407999</v>
       </c>
       <c r="M55">
-        <v>28.07857259075705</v>
+        <v>27.80276460136078</v>
       </c>
       <c r="N55">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O55">
         <v>48</v>
@@ -2737,10 +2737,10 @@
         <v>138</v>
       </c>
       <c r="Q55">
-        <v>1.653703340644533</v>
+        <v>1.365621708662555</v>
       </c>
       <c r="R55">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -2754,28 +2754,28 @@
         <v>26.49</v>
       </c>
       <c r="D56">
-        <v>26.75763981577475</v>
+        <v>26.75761816971698</v>
       </c>
       <c r="E56">
-        <v>27.00370243071315</v>
+        <v>26.98187287800062</v>
       </c>
       <c r="F56">
-        <v>26.97653927210699</v>
+        <v>26.95825397975833</v>
       </c>
       <c r="G56">
-        <v>26.97653927210699</v>
+        <v>26.95825397975833</v>
       </c>
       <c r="H56">
-        <v>27.20750637514795</v>
+        <v>27.17662729896059</v>
       </c>
       <c r="I56">
-        <v>27.03997870569393</v>
+        <v>27.00917673251411</v>
       </c>
       <c r="P56" t="s">
         <v>139</v>
       </c>
       <c r="Q56">
-        <v>0.5499787056939347</v>
+        <v>0.5191767325141114</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -2783,22 +2783,22 @@
         <v>73</v>
       </c>
       <c r="F57">
-        <v>27.00073805725034</v>
+        <v>26.94993361818969</v>
       </c>
       <c r="J57">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K57">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L57">
-        <v>27.23077499863629</v>
+        <v>27.1529515780679</v>
       </c>
       <c r="M57">
-        <v>28.24614712517564</v>
+        <v>27.83617546941432</v>
       </c>
       <c r="N57">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O57">
         <v>48</v>
@@ -2807,10 +2807,10 @@
         <v>138</v>
       </c>
       <c r="Q57">
-        <v>1.563328715157496</v>
+        <v>1.304723251181873</v>
       </c>
       <c r="R57">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -2824,28 +2824,28 @@
         <v>26.49</v>
       </c>
       <c r="D58">
-        <v>26.79111282977001</v>
+        <v>26.7909737562351</v>
       </c>
       <c r="E58">
-        <v>27.12362125597814</v>
+        <v>26.94961045597127</v>
       </c>
       <c r="F58">
-        <v>27.03280490224034</v>
+        <v>26.89697394438375</v>
       </c>
       <c r="G58">
-        <v>27.03280490224034</v>
+        <v>26.89697394438375</v>
       </c>
       <c r="H58">
-        <v>27.35071144551864</v>
+        <v>27.19454728511514</v>
       </c>
       <c r="I58">
-        <v>27.10806808800319</v>
+        <v>26.94622426863451</v>
       </c>
       <c r="P58" t="s">
         <v>139</v>
       </c>
       <c r="Q58">
-        <v>0.6180680880031915</v>
+        <v>0.4562242686345073</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -2853,22 +2853,22 @@
         <v>75</v>
       </c>
       <c r="F59">
-        <v>27.00370243071315</v>
+        <v>26.94961045597127</v>
       </c>
       <c r="J59">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K59">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L59">
-        <v>27.20750637514795</v>
+        <v>27.19454728511514</v>
       </c>
       <c r="M59">
-        <v>28.17909689515576</v>
+        <v>27.93673722213936</v>
       </c>
       <c r="N59">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O59">
         <v>48</v>
@@ -2877,10 +2877,10 @@
         <v>138</v>
       </c>
       <c r="Q59">
-        <v>1.56036434169468</v>
+        <v>1.305046413400291</v>
       </c>
       <c r="R59">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -2894,28 +2894,28 @@
         <v>26.49</v>
       </c>
       <c r="D60">
-        <v>26.82451149751862</v>
+        <v>26.8243754827206</v>
       </c>
       <c r="E60">
-        <v>27.00073805725034</v>
+        <v>26.94993361818969</v>
       </c>
       <c r="F60">
-        <v>26.94512967760709</v>
+        <v>26.85740905035008</v>
       </c>
       <c r="G60">
-        <v>26.94512967760709</v>
+        <v>26.85740905035008</v>
       </c>
       <c r="H60">
-        <v>27.23077499863629</v>
+        <v>27.1529515780679</v>
       </c>
       <c r="I60">
-        <v>27.01096281402071</v>
+        <v>26.93645429501447</v>
       </c>
       <c r="P60" t="s">
         <v>139</v>
       </c>
       <c r="Q60">
-        <v>0.520962814020713</v>
+        <v>0.4464542950144761</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -2923,22 +2923,22 @@
         <v>77</v>
       </c>
       <c r="F61">
-        <v>27.04862450495149</v>
+        <v>26.98187287800062</v>
       </c>
       <c r="J61">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K61">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L61">
-        <v>27.1514232306852</v>
+        <v>27.17662729896059</v>
       </c>
       <c r="M61">
-        <v>28.14558537245059</v>
+        <v>27.86968699211949</v>
       </c>
       <c r="N61">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O61">
         <v>48</v>
@@ -2947,10 +2947,10 @@
         <v>138</v>
       </c>
       <c r="Q61">
-        <v>1.515442267456343</v>
+        <v>1.272783991370936</v>
       </c>
       <c r="R61">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -2964,28 +2964,28 @@
         <v>26.49</v>
       </c>
       <c r="D62">
-        <v>26.85801688127149</v>
+        <v>26.85796845668108</v>
       </c>
       <c r="E62">
-        <v>27.04209362733497</v>
+        <v>27.09952013002934</v>
       </c>
       <c r="F62">
-        <v>27.01375366109708</v>
+        <v>27.05088695082956</v>
       </c>
       <c r="G62">
-        <v>27.01375366109708</v>
+        <v>27.05088695082956</v>
       </c>
       <c r="H62">
-        <v>27.248562329494</v>
+        <v>27.30471818750745</v>
       </c>
       <c r="I62">
-        <v>27.06044957061066</v>
+        <v>27.12563046019874</v>
       </c>
       <c r="P62" t="s">
         <v>139</v>
       </c>
       <c r="Q62">
-        <v>0.5704495706106592</v>
+        <v>0.6356304601987439</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -2993,22 +2993,22 @@
         <v>79</v>
       </c>
       <c r="F63">
-        <v>27.04209362733497</v>
+        <v>27.04516088041555</v>
       </c>
       <c r="J63">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K63">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L63">
-        <v>27.248562329494</v>
+        <v>27.19448701934201</v>
       </c>
       <c r="M63">
-        <v>28.31322363986253</v>
+        <v>27.90313134722625</v>
       </c>
       <c r="N63">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O63">
         <v>48</v>
@@ -3017,10 +3017,10 @@
         <v>138</v>
       </c>
       <c r="Q63">
-        <v>1.521973145072867</v>
+        <v>1.209495988956004</v>
       </c>
       <c r="R63">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3034,28 +3034,28 @@
         <v>26.49</v>
       </c>
       <c r="D64">
-        <v>26.8914954320258</v>
+        <v>26.89151064126231</v>
       </c>
       <c r="E64">
-        <v>27.04862450495149</v>
+        <v>27.07318270310766</v>
       </c>
       <c r="F64">
-        <v>27.00116750216601</v>
+        <v>27.02108265441422</v>
       </c>
       <c r="G64">
-        <v>27.00116750216601</v>
+        <v>27.02108265441422</v>
       </c>
       <c r="H64">
-        <v>27.1514232306852</v>
+        <v>27.34045334661552</v>
       </c>
       <c r="I64">
-        <v>27.05208772605247</v>
+        <v>27.07336572544105</v>
       </c>
       <c r="P64" t="s">
         <v>139</v>
       </c>
       <c r="Q64">
-        <v>0.562087726052475</v>
+        <v>0.5833657254410483</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -3063,22 +3063,22 @@
         <v>81</v>
       </c>
       <c r="F65">
-        <v>27.12362125597814</v>
+        <v>27.07318270310766</v>
       </c>
       <c r="J65">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K65">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L65">
-        <v>27.35071144551864</v>
+        <v>27.34045334661552</v>
       </c>
       <c r="M65">
-        <v>28.38019190162999</v>
+        <v>28.07078199859372</v>
       </c>
       <c r="N65">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O65">
         <v>48</v>
@@ -3087,10 +3087,10 @@
         <v>138</v>
       </c>
       <c r="Q65">
-        <v>1.440445516429694</v>
+        <v>1.1814741662639</v>
       </c>
       <c r="R65">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -3104,28 +3104,28 @@
         <v>26.49</v>
       </c>
       <c r="D66">
-        <v>26.92493870587213</v>
+        <v>26.92491764137752</v>
       </c>
       <c r="E66">
-        <v>27.21444788697274</v>
+        <v>27.12003974855284</v>
       </c>
       <c r="F66">
-        <v>27.14868896092073</v>
+        <v>27.06020343471233</v>
       </c>
       <c r="G66">
-        <v>27.14868896092073</v>
+        <v>27.06020343471233</v>
       </c>
       <c r="H66">
-        <v>27.47683532749927</v>
+        <v>27.33056028889797</v>
       </c>
       <c r="I66">
-        <v>27.22048557617361</v>
+        <v>27.12493830787565</v>
       </c>
       <c r="P66" t="s">
         <v>139</v>
       </c>
       <c r="Q66">
-        <v>0.73048557617361</v>
+        <v>0.6349383078756503</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -3133,22 +3133,22 @@
         <v>83</v>
       </c>
       <c r="F67">
-        <v>27.07261492620754</v>
+        <v>27.09952013002934</v>
       </c>
       <c r="J67">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K67">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L67">
-        <v>27.2466429440835</v>
+        <v>27.30471818750745</v>
       </c>
       <c r="M67">
-        <v>28.27962940732355</v>
+        <v>28.00381373682625</v>
       </c>
       <c r="N67">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O67">
         <v>48</v>
@@ -3157,10 +3157,10 @@
         <v>138</v>
       </c>
       <c r="Q67">
-        <v>1.491451846200295</v>
+        <v>1.155136739342222</v>
       </c>
       <c r="R67">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -3174,28 +3174,28 @@
         <v>26.49</v>
       </c>
       <c r="D68">
-        <v>26.95854938766126</v>
+        <v>26.95829479327539</v>
       </c>
       <c r="E68">
-        <v>27.07261492620754</v>
+        <v>27.04516088041555</v>
       </c>
       <c r="F68">
-        <v>27.03940449169091</v>
+        <v>27.01239904045076</v>
       </c>
       <c r="G68">
-        <v>27.03940449169091</v>
+        <v>27.01239904045076</v>
       </c>
       <c r="H68">
-        <v>27.2466429440835</v>
+        <v>27.19448701934201</v>
       </c>
       <c r="I68">
-        <v>27.10986842653531</v>
+        <v>27.06273277508757</v>
       </c>
       <c r="P68" t="s">
         <v>139</v>
       </c>
       <c r="Q68">
-        <v>0.6198684265353158</v>
+        <v>0.572732775087573</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -3203,22 +3203,22 @@
         <v>85</v>
       </c>
       <c r="F69">
-        <v>27.17235401936305</v>
+        <v>27.12003974855284</v>
       </c>
       <c r="J69">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K69">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L69">
-        <v>27.21947568036126</v>
+        <v>27.33056028889797</v>
       </c>
       <c r="M69">
-        <v>28.21254125026253</v>
+        <v>28.0371791095351</v>
       </c>
       <c r="N69">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O69">
         <v>48</v>
@@ -3227,10 +3227,10 @@
         <v>138</v>
       </c>
       <c r="Q69">
-        <v>1.391712753044786</v>
+        <v>1.134617120818717</v>
       </c>
       <c r="R69">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -3244,28 +3244,28 @@
         <v>26.49</v>
       </c>
       <c r="D70">
-        <v>26.99212696272862</v>
+        <v>26.99180978669698</v>
       </c>
       <c r="E70">
-        <v>27.17235401936305</v>
+        <v>27.28086891875499</v>
       </c>
       <c r="F70">
-        <v>27.09963606740791</v>
+        <v>27.21529059470335</v>
       </c>
       <c r="G70">
-        <v>27.09963606740791</v>
+        <v>27.21529059470335</v>
       </c>
       <c r="H70">
-        <v>27.21947568036126</v>
+        <v>27.54115660323002</v>
       </c>
       <c r="I70">
-        <v>27.15185960180571</v>
+        <v>27.25477353483408</v>
       </c>
       <c r="P70" t="s">
         <v>139</v>
       </c>
       <c r="Q70">
-        <v>0.661859601805709</v>
+        <v>0.7647735348340809</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -3273,22 +3273,22 @@
         <v>87</v>
       </c>
       <c r="F71">
-        <v>27.17748068245967</v>
+        <v>27.19584510317178</v>
       </c>
       <c r="J71">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K71">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L71">
-        <v>27.36764640900504</v>
+        <v>27.42655610750243</v>
       </c>
       <c r="M71">
-        <v>28.44717554111108</v>
+        <v>28.13776563807481</v>
       </c>
       <c r="N71">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O71">
         <v>48</v>
@@ -3297,10 +3297,10 @@
         <v>138</v>
       </c>
       <c r="Q71">
-        <v>1.386586089948167</v>
+        <v>1.058811766199774</v>
       </c>
       <c r="R71">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -3314,28 +3314,28 @@
         <v>26.49</v>
       </c>
       <c r="D72">
-        <v>27.02573452746852</v>
+        <v>27.02540393392029</v>
       </c>
       <c r="E72">
-        <v>27.17748068245967</v>
+        <v>27.25910192861328</v>
       </c>
       <c r="F72">
-        <v>27.13736121099472</v>
+        <v>27.2222196171382</v>
       </c>
       <c r="G72">
-        <v>27.13736121099472</v>
+        <v>27.2222196171382</v>
       </c>
       <c r="H72">
-        <v>27.36764640900504</v>
+        <v>27.28331988987686</v>
       </c>
       <c r="I72">
-        <v>27.1991141860037</v>
+        <v>27.27612217723262</v>
       </c>
       <c r="P72" t="s">
         <v>139</v>
       </c>
       <c r="Q72">
-        <v>0.7091141860036991</v>
+        <v>0.7861221772326203</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -3343,22 +3343,22 @@
         <v>89</v>
       </c>
       <c r="F73">
-        <v>27.21444788697274</v>
+        <v>27.28086891875499</v>
       </c>
       <c r="J73">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K73">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L73">
-        <v>27.47683532749927</v>
+        <v>27.54115660323002</v>
       </c>
       <c r="M73">
-        <v>28.51394606025268</v>
+        <v>28.2045361572164</v>
       </c>
       <c r="N73">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O73">
         <v>48</v>
@@ -3367,10 +3367,10 @@
         <v>138</v>
       </c>
       <c r="Q73">
-        <v>1.349618885435095</v>
+        <v>0.9737879506165648</v>
       </c>
       <c r="R73">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -3384,28 +3384,28 @@
         <v>26.49</v>
       </c>
       <c r="D74">
-        <v>27.05922153403543</v>
+        <v>27.0587938220626</v>
       </c>
       <c r="E74">
-        <v>27.2943436937863</v>
+        <v>27.19584510317178</v>
       </c>
       <c r="F74">
-        <v>27.27310494486693</v>
+        <v>27.11946137165111</v>
       </c>
       <c r="G74">
-        <v>27.27310494486693</v>
+        <v>27.11946137165111</v>
       </c>
       <c r="H74">
-        <v>27.35805869514687</v>
+        <v>27.42655610750243</v>
       </c>
       <c r="I74">
-        <v>27.35017109001328</v>
+        <v>27.16661115995192</v>
       </c>
       <c r="P74" t="s">
         <v>139</v>
       </c>
       <c r="Q74">
-        <v>0.8601710900132815</v>
+        <v>0.6766111599519213</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -3413,22 +3413,22 @@
         <v>91</v>
       </c>
       <c r="F75">
-        <v>27.27898427200561</v>
+        <v>27.25910192861328</v>
       </c>
       <c r="J75">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K75">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L75">
-        <v>27.32704185737553</v>
+        <v>27.28331988987686</v>
       </c>
       <c r="M75">
-        <v>28.34658901257137</v>
+        <v>27.97021950428728</v>
       </c>
       <c r="N75">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O75">
         <v>48</v>
@@ -3437,10 +3437,10 @@
         <v>138</v>
       </c>
       <c r="Q75">
-        <v>1.285082500402229</v>
+        <v>0.9955549407582822</v>
       </c>
       <c r="R75">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -3454,28 +3454,28 @@
         <v>26.49</v>
       </c>
       <c r="D76">
-        <v>27.09267252730559</v>
+        <v>27.09215279385919</v>
       </c>
       <c r="E76">
-        <v>27.27706730398372</v>
+        <v>27.31503516568156</v>
       </c>
       <c r="F76">
-        <v>27.23588397969719</v>
+        <v>27.24420563827591</v>
       </c>
       <c r="G76">
-        <v>27.23588397969719</v>
+        <v>27.24420563827591</v>
       </c>
       <c r="H76">
-        <v>27.38481437154</v>
+        <v>27.4101132745232</v>
       </c>
       <c r="I76">
-        <v>27.3091815105617</v>
+        <v>27.32236966402222</v>
       </c>
       <c r="P76" t="s">
         <v>139</v>
       </c>
       <c r="Q76">
-        <v>0.8191815105616982</v>
+        <v>0.8323696640222167</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -3483,22 +3483,22 @@
         <v>93</v>
       </c>
       <c r="F77">
-        <v>27.27706730398372</v>
+        <v>27.31503516568156</v>
       </c>
       <c r="J77">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K77">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L77">
-        <v>27.38481437154</v>
+        <v>27.4101132745232</v>
       </c>
       <c r="M77">
-        <v>28.48058261510067</v>
+        <v>28.10416493409821</v>
       </c>
       <c r="N77">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O77">
         <v>48</v>
@@ -3507,10 +3507,10 @@
         <v>138</v>
       </c>
       <c r="Q77">
-        <v>1.286999468424117</v>
+        <v>0.9396217036899976</v>
       </c>
       <c r="R77">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -3518,22 +3518,22 @@
         <v>94</v>
       </c>
       <c r="F78">
-        <v>27.2943436937863</v>
+        <v>27.33801140827588</v>
       </c>
       <c r="J78">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K78">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L78">
-        <v>27.35805869514687</v>
+        <v>27.56745069091128</v>
       </c>
       <c r="M78">
-        <v>28.41357483713448</v>
+        <v>28.23799020270489</v>
       </c>
       <c r="N78">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O78">
         <v>48</v>
@@ -3542,10 +3542,10 @@
         <v>138</v>
       </c>
       <c r="Q78">
-        <v>1.269723078621531</v>
+        <v>0.9166454610956798</v>
       </c>
       <c r="R78">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -3559,28 +3559,28 @@
         <v>26.49</v>
       </c>
       <c r="D79">
-        <v>27.12618283657706</v>
+        <v>27.12560492911447</v>
       </c>
       <c r="E79">
-        <v>27.27898427200561</v>
+        <v>27.4041022886024</v>
       </c>
       <c r="F79">
-        <v>27.19524077543394</v>
+        <v>27.38234160443326</v>
       </c>
       <c r="G79">
-        <v>27.19524077543394</v>
+        <v>27.38234160443326</v>
       </c>
       <c r="H79">
-        <v>27.32704185737553</v>
+        <v>27.46529839888456</v>
       </c>
       <c r="I79">
-        <v>27.24294126826266</v>
+        <v>27.42290286992931</v>
       </c>
       <c r="P79" t="s">
         <v>139</v>
       </c>
       <c r="Q79">
-        <v>0.7529412682626635</v>
+        <v>0.9329028699293112</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -3594,28 +3594,28 @@
         <v>26.49</v>
       </c>
       <c r="D80">
-        <v>27.15953707098264</v>
+        <v>27.15917009439777</v>
       </c>
       <c r="E80">
-        <v>27.44400916643266</v>
+        <v>27.33801140827588</v>
       </c>
       <c r="F80">
-        <v>27.3737576823926</v>
+        <v>27.28715854870241</v>
       </c>
       <c r="G80">
-        <v>27.3737576823926</v>
+        <v>27.28715854870241</v>
       </c>
       <c r="H80">
-        <v>27.67705344916941</v>
+        <v>27.56745069091128</v>
       </c>
       <c r="I80">
-        <v>27.4275461175537</v>
+        <v>27.35864538665924</v>
       </c>
       <c r="P80" t="s">
         <v>139</v>
       </c>
       <c r="Q80">
-        <v>0.9375461175536977</v>
+        <v>0.8686453866592423</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -3623,22 +3623,22 @@
         <v>97</v>
       </c>
       <c r="F81">
-        <v>27.44400916643266</v>
+        <v>27.4041022886024</v>
       </c>
       <c r="J81">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="K81">
-        <v>2.842739053109539</v>
+        <v>2.781763138679568</v>
       </c>
       <c r="L81">
-        <v>27.67705344916941</v>
+        <v>27.46529839888456</v>
       </c>
       <c r="M81">
-        <v>28.54740010574117</v>
+        <v>28.1711727120644</v>
       </c>
       <c r="N81">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="O81">
         <v>48</v>
@@ -3647,10 +3647,10 @@
         <v>138</v>
       </c>
       <c r="Q81">
-        <v>1.120057605975173</v>
+        <v>0.8505545807691597</v>
       </c>
       <c r="R81">
-        <v>26.65496039536211</v>
+        <v>26.68575048463055</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -3658,22 +3658,22 @@
         <v>98</v>
       </c>
       <c r="F82">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
       <c r="J82">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K82">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L82">
-        <v>69.39517021951809</v>
+        <v>69.17882416669353</v>
       </c>
       <c r="M82">
-        <v>70.15026923018736</v>
+        <v>69.97425900433691</v>
       </c>
       <c r="N82">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O82">
         <v>72</v>
@@ -3682,10 +3682,10 @@
         <v>138</v>
       </c>
       <c r="Q82">
-        <v>1.550023207015741</v>
+        <v>1.516991086222774</v>
       </c>
       <c r="R82">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -3702,25 +3702,25 @@
         <v>68.99353326507305</v>
       </c>
       <c r="E83">
-        <v>69.30726434526751</v>
+        <v>69.10982084375209</v>
       </c>
       <c r="F83">
-        <v>69.21833394250339</v>
+        <v>69.02726775835936</v>
       </c>
       <c r="G83">
-        <v>69.21833394250339</v>
+        <v>69.02726775835936</v>
       </c>
       <c r="H83">
-        <v>69.36265785910257</v>
+        <v>69.17882416669353</v>
       </c>
       <c r="I83">
-        <v>69.29412470255021</v>
+        <v>69.09073258276696</v>
       </c>
       <c r="P83" t="s">
         <v>139</v>
       </c>
       <c r="Q83">
-        <v>0.3341247025502128</v>
+        <v>0.1307325827669672</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -3728,22 +3728,22 @@
         <v>100</v>
       </c>
       <c r="F84">
-        <v>69.30726434526751</v>
+        <v>69.26284815903323</v>
       </c>
       <c r="J84">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K84">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L84">
-        <v>69.36265785910257</v>
+        <v>69.32101432778721</v>
       </c>
       <c r="M84">
-        <v>70.11683868564744</v>
+        <v>70.00768954887684</v>
       </c>
       <c r="N84">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O84">
         <v>72</v>
@@ -3752,10 +3752,10 @@
         <v>138</v>
       </c>
       <c r="Q84">
-        <v>1.462127266017873</v>
+        <v>1.363963770941638</v>
       </c>
       <c r="R84">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -3772,25 +3772,25 @@
         <v>69.02695002125867</v>
       </c>
       <c r="E85">
-        <v>69.35986468788771</v>
+        <v>69.33629613417385</v>
       </c>
       <c r="F85">
-        <v>69.28996930759548</v>
+        <v>69.25352873868566</v>
       </c>
       <c r="G85">
-        <v>69.28996930759548</v>
+        <v>69.25352873868566</v>
       </c>
       <c r="H85">
-        <v>69.47646445810638</v>
+        <v>69.5714581740677</v>
       </c>
       <c r="I85">
-        <v>69.33873882506384</v>
+        <v>69.31850052424215</v>
       </c>
       <c r="P85" t="s">
         <v>139</v>
       </c>
       <c r="Q85">
-        <v>0.3787388250638486</v>
+        <v>0.3585005242421602</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -3798,22 +3798,22 @@
         <v>102</v>
       </c>
       <c r="F86">
-        <v>69.34725053593645</v>
+        <v>69.30822778793221</v>
       </c>
       <c r="J86">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K86">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L86">
-        <v>69.42251203404186</v>
+        <v>69.51350296418789</v>
       </c>
       <c r="M86">
-        <v>70.18378315910215</v>
+        <v>70.0747538203054</v>
       </c>
       <c r="N86">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O86">
         <v>72</v>
@@ -3822,10 +3822,10 @@
         <v>138</v>
       </c>
       <c r="Q86">
-        <v>1.422141075348932</v>
+        <v>1.318584142042653</v>
       </c>
       <c r="R86">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -3842,25 +3842,25 @@
         <v>69.06039679706662</v>
       </c>
       <c r="E87">
-        <v>69.21936840426964</v>
+        <v>69.30822778793221</v>
       </c>
       <c r="F87">
-        <v>69.17903651892962</v>
+        <v>69.22927081340292</v>
       </c>
       <c r="G87">
-        <v>69.17903651892962</v>
+        <v>69.22927081340292</v>
       </c>
       <c r="H87">
-        <v>69.39517021951809</v>
+        <v>69.51350296418789</v>
       </c>
       <c r="I87">
-        <v>69.23208685452236</v>
+        <v>69.29167430206854</v>
       </c>
       <c r="P87" t="s">
         <v>139</v>
       </c>
       <c r="Q87">
-        <v>0.2720868545223709</v>
+        <v>0.3316743020685493</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -3868,22 +3868,22 @@
         <v>104</v>
       </c>
       <c r="F88">
-        <v>69.35986468788771</v>
+        <v>69.33629613417385</v>
       </c>
       <c r="J88">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K88">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L88">
-        <v>69.47646445810638</v>
+        <v>69.5714581740677</v>
       </c>
       <c r="M88">
-        <v>70.21733350161593</v>
+        <v>70.10826819659853</v>
       </c>
       <c r="N88">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O88">
         <v>72</v>
@@ -3892,10 +3892,10 @@
         <v>138</v>
       </c>
       <c r="Q88">
-        <v>1.409526923397678</v>
+        <v>1.290515795801014</v>
       </c>
       <c r="R88">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -3909,28 +3909,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D89">
-        <v>69.0938122568451</v>
+        <v>69.09399134253071</v>
       </c>
       <c r="E89">
-        <v>69.37776816328179</v>
+        <v>69.32293484867974</v>
       </c>
       <c r="F89">
-        <v>69.32839275499137</v>
+        <v>69.30481529198451</v>
       </c>
       <c r="G89">
-        <v>69.32839275499137</v>
+        <v>69.30481529198451</v>
       </c>
       <c r="H89">
-        <v>69.58794189165785</v>
+        <v>69.58206208349526</v>
       </c>
       <c r="I89">
-        <v>69.39349645059866</v>
+        <v>69.35739747718367</v>
       </c>
       <c r="P89" t="s">
         <v>139</v>
       </c>
       <c r="Q89">
-        <v>0.4334964505986676</v>
+        <v>0.3973974771836737</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -3938,22 +3938,22 @@
         <v>106</v>
       </c>
       <c r="F90">
-        <v>69.32444278871013</v>
+        <v>69.31863714051264</v>
       </c>
       <c r="J90">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K90">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L90">
-        <v>69.58949641253227</v>
+        <v>69.57274956505491</v>
       </c>
       <c r="M90">
-        <v>70.31798783483593</v>
+        <v>70.14181103915521</v>
       </c>
       <c r="N90">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O90">
         <v>72</v>
@@ -3962,10 +3962,10 @@
         <v>138</v>
       </c>
       <c r="Q90">
-        <v>1.444948822575256</v>
+        <v>1.308174789462228</v>
       </c>
       <c r="R90">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -3979,28 +3979,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D91">
-        <v>69.12726238082671</v>
+        <v>69.12757545518231</v>
       </c>
       <c r="E91">
-        <v>69.32444278871013</v>
+        <v>69.26284815903323</v>
       </c>
       <c r="F91">
-        <v>69.29311311484317</v>
+        <v>69.19288169059202</v>
       </c>
       <c r="G91">
-        <v>69.29311311484317</v>
+        <v>69.19288169059202</v>
       </c>
       <c r="H91">
-        <v>69.58949641253227</v>
+        <v>69.32101432778721</v>
       </c>
       <c r="I91">
-        <v>69.34494553374257</v>
+        <v>69.24595435217228</v>
       </c>
       <c r="P91" t="s">
         <v>139</v>
       </c>
       <c r="Q91">
-        <v>0.3849455337425809</v>
+        <v>0.2859543521722827</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -4014,28 +4014,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D92">
-        <v>69.16078385803372</v>
+        <v>69.16106099329707</v>
       </c>
       <c r="E92">
-        <v>69.34725053593645</v>
+        <v>69.31863714051264</v>
       </c>
       <c r="F92">
-        <v>69.25631157209097</v>
+        <v>69.2647936072693</v>
       </c>
       <c r="G92">
-        <v>69.25631157209097</v>
+        <v>69.2647936072693</v>
       </c>
       <c r="H92">
-        <v>69.42251203404186</v>
+        <v>69.57274956505491</v>
       </c>
       <c r="I92">
-        <v>69.3241424244782</v>
+        <v>69.31885377554654</v>
       </c>
       <c r="P92" t="s">
         <v>139</v>
       </c>
       <c r="Q92">
-        <v>0.364142424478203</v>
+        <v>0.3588537755465495</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -4043,22 +4043,22 @@
         <v>109</v>
       </c>
       <c r="F93">
-        <v>69.37776816328179</v>
+        <v>69.31564391157487</v>
       </c>
       <c r="J93">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K93">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L93">
-        <v>69.58794189165785</v>
+        <v>69.34377803504107</v>
       </c>
       <c r="M93">
-        <v>70.28439072046574</v>
+        <v>70.04120347779163</v>
       </c>
       <c r="N93">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O93">
         <v>72</v>
@@ -4067,10 +4067,10 @@
         <v>138</v>
       </c>
       <c r="Q93">
-        <v>1.3916234480036</v>
+        <v>1.311168018399997</v>
       </c>
       <c r="R93">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -4084,28 +4084,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D94">
-        <v>69.19428816773259</v>
+        <v>69.1944740248851</v>
       </c>
       <c r="E94">
-        <v>69.42708819838373</v>
+        <v>69.51089985187396</v>
       </c>
       <c r="F94">
-        <v>69.35850929326857</v>
+        <v>69.43618543965862</v>
       </c>
       <c r="G94">
-        <v>69.35850929326857</v>
+        <v>69.43618543965862</v>
       </c>
       <c r="H94">
-        <v>69.58148284820325</v>
+        <v>69.66673282437436</v>
       </c>
       <c r="I94">
-        <v>69.41707059682273</v>
+        <v>69.49445875309372</v>
       </c>
       <c r="P94" t="s">
         <v>139</v>
       </c>
       <c r="Q94">
-        <v>0.4570705968227315</v>
+        <v>0.5344587530937304</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -4113,22 +4113,22 @@
         <v>111</v>
       </c>
       <c r="F95">
-        <v>69.42708819838373</v>
+        <v>69.32293484867974</v>
       </c>
       <c r="J95">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K95">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L95">
-        <v>69.58148284820325</v>
+        <v>69.58206208349526</v>
       </c>
       <c r="M95">
-        <v>70.25084787790905</v>
+        <v>70.17540815352541</v>
       </c>
       <c r="N95">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O95">
         <v>72</v>
@@ -4137,10 +4137,10 @@
         <v>138</v>
       </c>
       <c r="Q95">
-        <v>1.342303412901657</v>
+        <v>1.303877081295127</v>
       </c>
       <c r="R95">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -4154,28 +4154,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D96">
-        <v>69.22774091444093</v>
+        <v>69.2279365216046</v>
       </c>
       <c r="E96">
-        <v>69.45642408149695</v>
+        <v>69.31564391157487</v>
       </c>
       <c r="F96">
-        <v>69.42565179363432</v>
+        <v>69.28825633185693</v>
       </c>
       <c r="G96">
-        <v>69.42565179363432</v>
+        <v>69.28825633185693</v>
       </c>
       <c r="H96">
-        <v>69.72045411109266</v>
+        <v>69.34377803504107</v>
       </c>
       <c r="I96">
-        <v>69.49419844288892</v>
+        <v>69.3505164950498</v>
       </c>
       <c r="P96" t="s">
         <v>139</v>
       </c>
       <c r="Q96">
-        <v>0.5341984428889219</v>
+        <v>0.390516495049809</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -4183,22 +4183,22 @@
         <v>113</v>
       </c>
       <c r="F97">
-        <v>69.47790614952544</v>
+        <v>69.43715361525891</v>
       </c>
       <c r="J97">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K97">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L97">
-        <v>69.72287341462003</v>
+        <v>69.62992420240366</v>
       </c>
       <c r="M97">
-        <v>70.4514595970638</v>
+        <v>70.24213585927532</v>
       </c>
       <c r="N97">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O97">
         <v>72</v>
@@ -4207,10 +4207,10 @@
         <v>138</v>
       </c>
       <c r="Q97">
-        <v>1.291485461759947</v>
+        <v>1.189658314715956</v>
       </c>
       <c r="R97">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -4224,28 +4224,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D98">
-        <v>69.26113360927454</v>
+        <v>69.26152018294512</v>
       </c>
       <c r="E98">
-        <v>69.51166725127808</v>
+        <v>69.4540128950002</v>
       </c>
       <c r="F98">
-        <v>69.46188978440573</v>
+        <v>69.37879254833774</v>
       </c>
       <c r="G98">
-        <v>69.46188978440573</v>
+        <v>69.37879254833774</v>
       </c>
       <c r="H98">
-        <v>69.62352493960074</v>
+        <v>69.70055489652455</v>
       </c>
       <c r="I98">
-        <v>69.53710958389161</v>
+        <v>69.44814351974586</v>
       </c>
       <c r="P98" t="s">
         <v>139</v>
       </c>
       <c r="Q98">
-        <v>0.5771095838916125</v>
+        <v>0.4881435197458615</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -4253,22 +4253,22 @@
         <v>115</v>
       </c>
       <c r="F99">
-        <v>69.51156909297971</v>
+        <v>69.4540128950002</v>
       </c>
       <c r="J99">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K99">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L99">
-        <v>69.7562689027264</v>
+        <v>69.70055489652455</v>
       </c>
       <c r="M99">
-        <v>70.51846888273785</v>
+        <v>70.37588920142733</v>
       </c>
       <c r="N99">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O99">
         <v>72</v>
@@ -4277,10 +4277,10 @@
         <v>138</v>
       </c>
       <c r="Q99">
-        <v>1.257822518305673</v>
+        <v>1.172799034974659</v>
       </c>
       <c r="R99">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -4288,22 +4288,22 @@
         <v>116</v>
       </c>
       <c r="F100">
-        <v>69.45642408149695</v>
+        <v>69.51089985187396</v>
       </c>
       <c r="J100">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K100">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L100">
-        <v>69.72045411109266</v>
+        <v>69.66673282437436</v>
       </c>
       <c r="M100">
-        <v>70.41809120234856</v>
+        <v>70.30887991575328</v>
       </c>
       <c r="N100">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O100">
         <v>72</v>
@@ -4312,10 +4312,10 @@
         <v>138</v>
       </c>
       <c r="Q100">
-        <v>1.312967529788438</v>
+        <v>1.115912078100905</v>
       </c>
       <c r="R100">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -4329,28 +4329,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D101">
-        <v>69.29449049692363</v>
+        <v>69.29508085612972</v>
       </c>
       <c r="E101">
-        <v>69.51156909297971</v>
+        <v>69.43715361525891</v>
       </c>
       <c r="F101">
-        <v>69.41791117119162</v>
+        <v>69.36968289707062</v>
       </c>
       <c r="G101">
-        <v>69.41791117119162</v>
+        <v>69.36968289707062</v>
       </c>
       <c r="H101">
-        <v>69.7562689027264</v>
+        <v>69.62992420240366</v>
       </c>
       <c r="I101">
-        <v>69.4866033250663</v>
+        <v>69.43943103435841</v>
       </c>
       <c r="P101" t="s">
         <v>139</v>
       </c>
       <c r="Q101">
-        <v>0.5266033250663043</v>
+        <v>0.4794310343584129</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -4364,28 +4364,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D102">
-        <v>69.32803247973962</v>
+        <v>69.32865022771155</v>
       </c>
       <c r="E102">
-        <v>69.47790614952544</v>
+        <v>69.58585861564418</v>
       </c>
       <c r="F102">
-        <v>69.38117805030858</v>
+        <v>69.50368313551236</v>
       </c>
       <c r="G102">
-        <v>69.38117805030858</v>
+        <v>69.50368313551236</v>
       </c>
       <c r="H102">
-        <v>69.72287341462003</v>
+        <v>69.68052868010176</v>
       </c>
       <c r="I102">
-        <v>69.44428611182934</v>
+        <v>69.55226812800029</v>
       </c>
       <c r="P102" t="s">
         <v>139</v>
       </c>
       <c r="Q102">
-        <v>0.4842861118293484</v>
+        <v>0.592268128000299</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -4393,22 +4393,22 @@
         <v>119</v>
       </c>
       <c r="F103">
-        <v>69.51166725127808</v>
+        <v>69.5421182482411</v>
       </c>
       <c r="J103">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K103">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L103">
-        <v>69.62352493960074</v>
+        <v>69.66285419623959</v>
       </c>
       <c r="M103">
-        <v>70.35137654613659</v>
+        <v>70.27551152103804</v>
       </c>
       <c r="N103">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O103">
         <v>72</v>
@@ -4417,10 +4417,10 @@
         <v>138</v>
       </c>
       <c r="Q103">
-        <v>1.257724360007302</v>
+        <v>1.084693681733768</v>
       </c>
       <c r="R103">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -4428,22 +4428,22 @@
         <v>120</v>
       </c>
       <c r="F104">
-        <v>69.60553018568508</v>
+        <v>69.58585861564418</v>
       </c>
       <c r="J104">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K104">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L104">
-        <v>69.65509209564924</v>
+        <v>69.68052868010176</v>
       </c>
       <c r="M104">
-        <v>70.38471554058584</v>
+        <v>70.34239920987679</v>
       </c>
       <c r="N104">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O104">
         <v>72</v>
@@ -4452,10 +4452,10 @@
         <v>138</v>
       </c>
       <c r="Q104">
-        <v>1.163861425600302</v>
+        <v>1.040953314330679</v>
       </c>
       <c r="R104">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -4469,28 +4469,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D105">
-        <v>69.36138604313662</v>
+        <v>69.36201316862726</v>
       </c>
       <c r="E105">
-        <v>69.6613494732613</v>
+        <v>69.5421182482411</v>
       </c>
       <c r="F105">
-        <v>69.62831676884498</v>
+        <v>69.44775943777385</v>
       </c>
       <c r="G105">
-        <v>69.62831676884498</v>
+        <v>69.44775943777385</v>
       </c>
       <c r="H105">
-        <v>69.87622194125292</v>
+        <v>69.66285419623959</v>
       </c>
       <c r="I105">
-        <v>69.69168036104107</v>
+        <v>69.50437185956912</v>
       </c>
       <c r="P105" t="s">
         <v>139</v>
       </c>
       <c r="Q105">
-        <v>0.7316803610410716</v>
+        <v>0.5443718595691251</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -4504,28 +4504,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D106">
-        <v>69.39492797771345</v>
+        <v>69.3954903791135</v>
       </c>
       <c r="E106">
-        <v>69.60553018568508</v>
+        <v>69.68559116092683</v>
       </c>
       <c r="F106">
-        <v>69.55372221214493</v>
+        <v>69.62805917241384</v>
       </c>
       <c r="G106">
-        <v>69.55372221214493</v>
+        <v>69.62805917241384</v>
       </c>
       <c r="H106">
-        <v>69.65509209564924</v>
+        <v>69.85250655185133</v>
       </c>
       <c r="I106">
-        <v>69.59796127353363</v>
+        <v>69.68983147884153</v>
       </c>
       <c r="P106" t="s">
         <v>139</v>
       </c>
       <c r="Q106">
-        <v>0.6379612735336337</v>
+        <v>0.7298314788415325</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -4533,22 +4533,22 @@
         <v>123</v>
       </c>
       <c r="F107">
-        <v>69.68983369071799</v>
+        <v>69.59536780920514</v>
       </c>
       <c r="J107">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K107">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L107">
-        <v>69.77081627000422</v>
+        <v>69.618460277436</v>
       </c>
       <c r="M107">
-        <v>70.55186276177699</v>
+        <v>70.20879686482607</v>
       </c>
       <c r="N107">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O107">
         <v>72</v>
@@ -4557,10 +4557,10 @@
         <v>138</v>
       </c>
       <c r="Q107">
-        <v>1.079557920567396</v>
+        <v>1.03144412076972</v>
       </c>
       <c r="R107">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -4574,28 +4574,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D108">
-        <v>69.42827526059821</v>
+        <v>69.42898911586863</v>
       </c>
       <c r="E108">
-        <v>69.68983369071799</v>
+        <v>69.59536780920514</v>
       </c>
       <c r="F108">
-        <v>69.6108670471087</v>
+        <v>69.50836808648074</v>
       </c>
       <c r="G108">
-        <v>69.6108670471087</v>
+        <v>69.50836808648074</v>
       </c>
       <c r="H108">
-        <v>69.77081627000422</v>
+        <v>69.618460277436</v>
       </c>
       <c r="I108">
-        <v>69.67209200098091</v>
+        <v>69.55999256676559</v>
       </c>
       <c r="P108" t="s">
         <v>139</v>
       </c>
       <c r="Q108">
-        <v>0.7120920009809169</v>
+        <v>0.599992566765593</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -4603,22 +4603,22 @@
         <v>125</v>
       </c>
       <c r="F109">
-        <v>69.64141771681236</v>
+        <v>69.60221428588842</v>
       </c>
       <c r="J109">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K109">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L109">
-        <v>69.727271879733</v>
+        <v>69.79055092793638</v>
       </c>
       <c r="M109">
-        <v>70.48497889118731</v>
+        <v>70.40928308046647</v>
       </c>
       <c r="N109">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O109">
         <v>72</v>
@@ -4627,10 +4627,10 @@
         <v>138</v>
       </c>
       <c r="Q109">
-        <v>1.12797389447303</v>
+        <v>1.024597644086441</v>
       </c>
       <c r="R109">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -4638,22 +4638,22 @@
         <v>126</v>
       </c>
       <c r="F110">
-        <v>69.6613494732613</v>
+        <v>69.64727255854844</v>
       </c>
       <c r="J110">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K110">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L110">
-        <v>69.87622194125292</v>
+        <v>69.89130982584147</v>
       </c>
       <c r="M110">
-        <v>70.58539039093567</v>
+        <v>70.54323902482949</v>
       </c>
       <c r="N110">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O110">
         <v>72</v>
@@ -4662,10 +4662,10 @@
         <v>138</v>
       </c>
       <c r="Q110">
-        <v>1.108042138024089</v>
+        <v>0.9795393714264264</v>
       </c>
       <c r="R110">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -4679,28 +4679,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D111">
-        <v>69.46185621224427</v>
+        <v>69.46257006751469</v>
       </c>
       <c r="E111">
-        <v>69.74396097502189</v>
+        <v>69.70428936913451</v>
       </c>
       <c r="F111">
-        <v>69.70623235410724</v>
+        <v>69.66882640929984</v>
       </c>
       <c r="G111">
-        <v>69.70623235410724</v>
+        <v>69.66882640929984</v>
       </c>
       <c r="H111">
-        <v>69.99811743196088</v>
+        <v>69.91411254659675</v>
       </c>
       <c r="I111">
-        <v>69.75557426735554</v>
+        <v>69.71707585301343</v>
       </c>
       <c r="P111" t="s">
         <v>139</v>
       </c>
       <c r="Q111">
-        <v>0.7955742673555477</v>
+        <v>0.7570758530134327</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -4714,28 +4714,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D112">
-        <v>69.49543877005073</v>
+        <v>69.49597207855288</v>
       </c>
       <c r="E112">
-        <v>69.64141771681236</v>
+        <v>69.82033989360929</v>
       </c>
       <c r="F112">
-        <v>69.62423999794963</v>
+        <v>69.7505889969956</v>
       </c>
       <c r="G112">
-        <v>69.62423999794963</v>
+        <v>69.7505889969956</v>
       </c>
       <c r="H112">
-        <v>69.727271879733</v>
+        <v>69.85038179475914</v>
       </c>
       <c r="I112">
-        <v>69.66195490673604</v>
+        <v>69.80964927525017</v>
       </c>
       <c r="P112" t="s">
         <v>139</v>
       </c>
       <c r="Q112">
-        <v>0.7019549067360487</v>
+        <v>0.8496492752501723</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -4743,22 +4743,22 @@
         <v>129</v>
       </c>
       <c r="F113">
-        <v>69.74396097502189</v>
+        <v>69.68559116092683</v>
       </c>
       <c r="J113">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K113">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L113">
-        <v>69.99811743196088</v>
+        <v>69.85250655185133</v>
       </c>
       <c r="M113">
-        <v>70.71935979659889</v>
+        <v>70.50973701163674</v>
       </c>
       <c r="N113">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O113">
         <v>72</v>
@@ -4767,10 +4767,10 @@
         <v>138</v>
       </c>
       <c r="Q113">
-        <v>1.025430636263494</v>
+        <v>0.9412207690480301</v>
       </c>
       <c r="R113">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -4784,28 +4784,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D114">
-        <v>69.52891690888762</v>
+        <v>69.52951813790963</v>
       </c>
       <c r="E114">
-        <v>69.85363337079892</v>
+        <v>69.60221428588842</v>
       </c>
       <c r="F114">
-        <v>69.77453315159934</v>
+        <v>69.57461083002966</v>
       </c>
       <c r="G114">
-        <v>69.77453315159934</v>
+        <v>69.57461083002966</v>
       </c>
       <c r="H114">
-        <v>70.02825475188449</v>
+        <v>69.79055092793638</v>
       </c>
       <c r="I114">
-        <v>69.81973764612101</v>
+        <v>69.64475170999134</v>
       </c>
       <c r="P114" t="s">
         <v>139</v>
       </c>
       <c r="Q114">
-        <v>0.8597376461210189</v>
+        <v>0.684751709991346</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -4813,22 +4813,22 @@
         <v>131</v>
       </c>
       <c r="F115">
-        <v>69.78364016899384</v>
+        <v>69.68676132914177</v>
       </c>
       <c r="J115">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K115">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L115">
-        <v>69.9426486529326</v>
+        <v>69.79451231592657</v>
       </c>
       <c r="M115">
-        <v>70.65231669294727</v>
+        <v>70.44281070962515</v>
       </c>
       <c r="N115">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O115">
         <v>72</v>
@@ -4837,10 +4837,10 @@
         <v>138</v>
       </c>
       <c r="Q115">
-        <v>0.9857514422915443</v>
+        <v>0.9400506008330893</v>
       </c>
       <c r="R115">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -4854,28 +4854,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D116">
-        <v>69.56232961115175</v>
+        <v>69.5629157105429</v>
       </c>
       <c r="E116">
-        <v>69.85033321388666</v>
+        <v>69.68676132914177</v>
       </c>
       <c r="F116">
-        <v>69.81593179999157</v>
+        <v>69.63921129447054</v>
       </c>
       <c r="G116">
-        <v>69.81593179999157</v>
+        <v>69.63921129447054</v>
       </c>
       <c r="H116">
-        <v>69.87721511791474</v>
+        <v>69.79451231592657</v>
       </c>
       <c r="I116">
-        <v>69.85941380051109</v>
+        <v>69.67806561194202</v>
       </c>
       <c r="P116" t="s">
         <v>139</v>
       </c>
       <c r="Q116">
-        <v>0.8994138005110983</v>
+        <v>0.7180656119420235</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -4883,22 +4883,22 @@
         <v>133</v>
       </c>
       <c r="F117">
-        <v>69.85363337079892</v>
+        <v>69.70428936913451</v>
       </c>
       <c r="J117">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K117">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L117">
-        <v>70.02825475188449</v>
+        <v>69.91411254659675</v>
       </c>
       <c r="M117">
-        <v>70.75272494461872</v>
+        <v>70.57678011528837</v>
       </c>
       <c r="N117">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O117">
         <v>72</v>
@@ -4907,10 +4907,10 @@
         <v>138</v>
       </c>
       <c r="Q117">
-        <v>0.9157582404864684</v>
+        <v>0.9225225608403491</v>
       </c>
       <c r="R117">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -4924,28 +4924,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D118">
-        <v>69.59572718378502</v>
+        <v>69.59626688522366</v>
       </c>
       <c r="E118">
-        <v>69.78364016899384</v>
+        <v>69.64727255854844</v>
       </c>
       <c r="F118">
-        <v>69.73410089892327</v>
+        <v>69.62001979075066</v>
       </c>
       <c r="G118">
-        <v>69.73410089892327</v>
+        <v>69.62001979075066</v>
       </c>
       <c r="H118">
-        <v>69.9426486529326</v>
+        <v>69.89130982584147</v>
       </c>
       <c r="I118">
-        <v>69.77871203792486</v>
+        <v>69.69163601782526</v>
       </c>
       <c r="P118" t="s">
         <v>139</v>
       </c>
       <c r="Q118">
-        <v>0.8187120379248682</v>
+        <v>0.7316360178252665</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -4953,22 +4953,22 @@
         <v>135</v>
       </c>
       <c r="F119">
-        <v>69.89780640782855</v>
+        <v>69.82033989360929</v>
       </c>
       <c r="J119">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K119">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L119">
-        <v>69.97031435103933</v>
+        <v>69.85038179475914</v>
       </c>
       <c r="M119">
-        <v>70.68581870614001</v>
+        <v>70.47635707020802</v>
       </c>
       <c r="N119">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O119">
         <v>72</v>
@@ -4977,10 +4977,10 @@
         <v>138</v>
       </c>
       <c r="Q119">
-        <v>0.8715852034568314</v>
+        <v>0.8064720363655766</v>
       </c>
       <c r="R119">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -4988,22 +4988,22 @@
         <v>136</v>
       </c>
       <c r="F120">
-        <v>69.85033321388666</v>
+        <v>69.89319175450093</v>
       </c>
       <c r="J120">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="K120">
-        <v>28.56406677240783</v>
+        <v>28.25465686937156</v>
       </c>
       <c r="L120">
-        <v>69.87721511791474</v>
+        <v>69.9379131558518</v>
       </c>
       <c r="M120">
-        <v>70.61893675151855</v>
+        <v>70.6101452633082</v>
       </c>
       <c r="N120">
-        <v>70.76939161128539</v>
+        <v>70.62681192997486</v>
       </c>
       <c r="O120">
         <v>72</v>
@@ -5012,10 +5012,10 @@
         <v>138</v>
       </c>
       <c r="Q120">
-        <v>0.9190583973987287</v>
+        <v>0.7336201754739307</v>
       </c>
       <c r="R120">
-        <v>69.21936840426964</v>
+        <v>69.10982084375209</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -5029,28 +5029,28 @@
         <v>68.95999999999999</v>
       </c>
       <c r="D121">
-        <v>69.62921124243516</v>
+        <v>69.62981288371702</v>
       </c>
       <c r="E121">
-        <v>69.89780640782855</v>
+        <v>69.89319175450093</v>
       </c>
       <c r="F121">
-        <v>69.81143575773334</v>
+        <v>69.83548536240234</v>
       </c>
       <c r="G121">
-        <v>69.81143575773334</v>
+        <v>69.83548536240234</v>
       </c>
       <c r="H121">
-        <v>69.97031435103933</v>
+        <v>69.9379131558518</v>
       </c>
       <c r="I121">
-        <v>69.86426830500626</v>
+        <v>69.90968411030826</v>
       </c>
       <c r="P121" t="s">
         <v>139</v>
       </c>
       <c r="Q121">
-        <v>0.9042683050062692</v>
+        <v>0.9496841103082687</v>
       </c>
     </row>
   </sheetData>
